--- a/data/pca/factorExposure/factorExposure_2011-07-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02282804948294245</v>
+        <v>0.01917503523497174</v>
       </c>
       <c r="C2">
-        <v>-0.001273197459830945</v>
+        <v>-0.0007279272679639879</v>
       </c>
       <c r="D2">
-        <v>0.04735885203645425</v>
+        <v>-0.00344768621822029</v>
       </c>
       <c r="E2">
-        <v>0.02880823359834618</v>
+        <v>0.03658197251062228</v>
       </c>
       <c r="F2">
-        <v>-0.04645580219100216</v>
+        <v>0.003607674187673282</v>
       </c>
       <c r="G2">
-        <v>0.009574033915238058</v>
+        <v>-0.02498771818614069</v>
       </c>
       <c r="H2">
-        <v>-0.02322719160346505</v>
+        <v>0.01927353891078276</v>
       </c>
       <c r="I2">
-        <v>0.02311514477169785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-0.04115117779985762</v>
+      </c>
+      <c r="J2">
+        <v>0.05229513700376465</v>
+      </c>
+      <c r="K2">
+        <v>0.0142957587222463</v>
+      </c>
+      <c r="L2">
+        <v>0.04062031257124361</v>
+      </c>
+      <c r="M2">
+        <v>0.03557852912958123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.07094375051340272</v>
+        <v>0.104948100561511</v>
       </c>
       <c r="C4">
-        <v>0.06019350756961643</v>
+        <v>0.07854866712930818</v>
       </c>
       <c r="D4">
-        <v>0.03945753305251572</v>
+        <v>-0.02401283932682055</v>
       </c>
       <c r="E4">
-        <v>0.04698566183906357</v>
+        <v>0.04718368995816943</v>
       </c>
       <c r="F4">
-        <v>-0.0008555694825388479</v>
+        <v>0.1081447832054808</v>
       </c>
       <c r="G4">
-        <v>-0.02532351206790896</v>
+        <v>0.01300309632355257</v>
       </c>
       <c r="H4">
-        <v>0.002432072674006702</v>
+        <v>-0.06104089974934586</v>
       </c>
       <c r="I4">
-        <v>0.008864319953374623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.04000651732181971</v>
+      </c>
+      <c r="J4">
+        <v>-0.02648901367414696</v>
+      </c>
+      <c r="K4">
+        <v>0.07243000650213068</v>
+      </c>
+      <c r="L4">
+        <v>-0.06555510413861236</v>
+      </c>
+      <c r="M4">
+        <v>0.0214781794946617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1281177052144434</v>
+        <v>0.1295281918043824</v>
       </c>
       <c r="C6">
-        <v>0.02891728951942656</v>
+        <v>0.05351506930085569</v>
       </c>
       <c r="D6">
-        <v>0.06327036205072346</v>
+        <v>-0.005065361445822041</v>
       </c>
       <c r="E6">
-        <v>0.114700050231652</v>
+        <v>0.0308287291576543</v>
       </c>
       <c r="F6">
-        <v>0.1060234589489697</v>
+        <v>0.04435340970683285</v>
       </c>
       <c r="G6">
-        <v>0.01182622682227893</v>
+        <v>0.1493440793520405</v>
       </c>
       <c r="H6">
-        <v>0.194579704118591</v>
+        <v>0.05852924225898449</v>
       </c>
       <c r="I6">
-        <v>-0.2257303918437798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.0961652311826915</v>
+      </c>
+      <c r="J6">
+        <v>-0.2622273564884474</v>
+      </c>
+      <c r="K6">
+        <v>0.3140546660739306</v>
+      </c>
+      <c r="L6">
+        <v>0.1713614066806039</v>
+      </c>
+      <c r="M6">
+        <v>-0.009863128409417979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06566141227289102</v>
+        <v>0.06994006756771357</v>
       </c>
       <c r="C7">
-        <v>0.05305848297096298</v>
+        <v>0.07426289758991331</v>
       </c>
       <c r="D7">
-        <v>0.0543701945305743</v>
+        <v>-0.006766209462263236</v>
       </c>
       <c r="E7">
-        <v>0.03439504119093321</v>
+        <v>0.04431224782456</v>
       </c>
       <c r="F7">
-        <v>0.03969353654946233</v>
+        <v>0.02325930692694169</v>
       </c>
       <c r="G7">
-        <v>-0.01014439138895628</v>
+        <v>-0.00123313294510558</v>
       </c>
       <c r="H7">
-        <v>0.005444206131539414</v>
+        <v>-0.04974123073800656</v>
       </c>
       <c r="I7">
-        <v>0.05404176443522964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.03930822563277966</v>
+      </c>
+      <c r="J7">
+        <v>0.01127913036676085</v>
+      </c>
+      <c r="K7">
+        <v>-0.01910493840456182</v>
+      </c>
+      <c r="L7">
+        <v>-0.09773660278149261</v>
+      </c>
+      <c r="M7">
+        <v>-0.001897550784614065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.0244069443638636</v>
+        <v>0.0360631949177399</v>
       </c>
       <c r="C8">
-        <v>0.01274561549110821</v>
+        <v>0.01068976190926229</v>
       </c>
       <c r="D8">
-        <v>0.03454840829010138</v>
+        <v>-0.01845994630510025</v>
       </c>
       <c r="E8">
-        <v>0.05264192842285148</v>
+        <v>0.04900228846208795</v>
       </c>
       <c r="F8">
-        <v>-0.008244887354644306</v>
+        <v>0.1017685960464843</v>
       </c>
       <c r="G8">
-        <v>0.06163354788819076</v>
+        <v>0.01258143563848694</v>
       </c>
       <c r="H8">
-        <v>-0.005905558476895014</v>
+        <v>-0.03478481599018629</v>
       </c>
       <c r="I8">
-        <v>0.03755548523693547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.01641384661361771</v>
+      </c>
+      <c r="J8">
+        <v>0.008027494130152754</v>
+      </c>
+      <c r="K8">
+        <v>0.07402437267682387</v>
+      </c>
+      <c r="L8">
+        <v>-0.05516520596535068</v>
+      </c>
+      <c r="M8">
+        <v>0.00560730896929365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.07366022335255192</v>
+        <v>0.08365699484257849</v>
       </c>
       <c r="C9">
-        <v>0.07789054163461089</v>
+        <v>0.06882015082681896</v>
       </c>
       <c r="D9">
-        <v>0.04439907149960139</v>
+        <v>-0.004317867403885843</v>
       </c>
       <c r="E9">
-        <v>0.03274110985300897</v>
+        <v>0.02989067252085295</v>
       </c>
       <c r="F9">
-        <v>-0.01239592159231043</v>
+        <v>0.1047071613285955</v>
       </c>
       <c r="G9">
-        <v>-0.0121470405964862</v>
+        <v>0.007193772109140817</v>
       </c>
       <c r="H9">
-        <v>-0.002237457983785629</v>
+        <v>-0.0575971089765764</v>
       </c>
       <c r="I9">
-        <v>0.01460395754603284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.04544797924810761</v>
+      </c>
+      <c r="J9">
+        <v>-0.01271808783616664</v>
+      </c>
+      <c r="K9">
+        <v>0.03564819136553606</v>
+      </c>
+      <c r="L9">
+        <v>-0.03351069849916651</v>
+      </c>
+      <c r="M9">
+        <v>-0.001932148225444769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06338991793042001</v>
+        <v>0.1075743428706641</v>
       </c>
       <c r="C10">
-        <v>-0.1400639843272113</v>
+        <v>-0.1708749825154281</v>
       </c>
       <c r="D10">
-        <v>0.0543091335457893</v>
+        <v>-0.008725879746913249</v>
       </c>
       <c r="E10">
-        <v>0.03676370054316663</v>
+        <v>0.05009471695622232</v>
       </c>
       <c r="F10">
-        <v>0.05363624599917349</v>
+        <v>-0.01594018244020997</v>
       </c>
       <c r="G10">
-        <v>0.01647279965029085</v>
+        <v>0.01489733587650721</v>
       </c>
       <c r="H10">
-        <v>0.0509150186629504</v>
+        <v>-0.001088232523579748</v>
       </c>
       <c r="I10">
-        <v>0.002468646873015217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.02295852005223347</v>
+      </c>
+      <c r="J10">
+        <v>0.00595435304030436</v>
+      </c>
+      <c r="K10">
+        <v>-0.07166272605378773</v>
+      </c>
+      <c r="L10">
+        <v>0.007027482226980348</v>
+      </c>
+      <c r="M10">
+        <v>-0.05856840405184588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.0652987528328588</v>
+        <v>0.0662201133547838</v>
       </c>
       <c r="C11">
-        <v>0.09037222167714574</v>
+        <v>0.07066809557140798</v>
       </c>
       <c r="D11">
-        <v>0.03765089046149307</v>
+        <v>0.03009278445198613</v>
       </c>
       <c r="E11">
-        <v>0.005190775366271649</v>
+        <v>0.01258185066648115</v>
       </c>
       <c r="F11">
-        <v>-0.04960217915831049</v>
+        <v>0.1063780477375659</v>
       </c>
       <c r="G11">
-        <v>0.021830817113007</v>
+        <v>-0.01336696842049929</v>
       </c>
       <c r="H11">
-        <v>-0.04312740781726831</v>
+        <v>-0.03365374867539948</v>
       </c>
       <c r="I11">
-        <v>0.04930372479530057</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.03707458800648479</v>
+      </c>
+      <c r="J11">
+        <v>0.07747796854908284</v>
+      </c>
+      <c r="K11">
+        <v>-0.05470273816279839</v>
+      </c>
+      <c r="L11">
+        <v>0.01027752355648865</v>
+      </c>
+      <c r="M11">
+        <v>-0.07501605791852232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05887594018196767</v>
+        <v>0.07091610281702931</v>
       </c>
       <c r="C12">
-        <v>0.05555528534277184</v>
+        <v>0.06338977327253448</v>
       </c>
       <c r="D12">
-        <v>0.01602591849105604</v>
+        <v>0.02924151144924294</v>
       </c>
       <c r="E12">
-        <v>0.01604431363581844</v>
+        <v>0.003692063604014592</v>
       </c>
       <c r="F12">
-        <v>3.345804079362328e-06</v>
+        <v>0.1190429425184777</v>
       </c>
       <c r="G12">
-        <v>-0.005008222181325022</v>
+        <v>-0.01613041693396223</v>
       </c>
       <c r="H12">
-        <v>-0.02592360691432673</v>
+        <v>-0.0248361910591957</v>
       </c>
       <c r="I12">
-        <v>0.07002156818864602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.05833537908357819</v>
+      </c>
+      <c r="J12">
+        <v>0.08364023759393652</v>
+      </c>
+      <c r="K12">
+        <v>-0.01133532408398933</v>
+      </c>
+      <c r="L12">
+        <v>-0.01560115748039038</v>
+      </c>
+      <c r="M12">
+        <v>-0.1099592902412049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05361145306490111</v>
+        <v>0.04668818023909867</v>
       </c>
       <c r="C13">
-        <v>0.02094139350466682</v>
+        <v>0.03460853606252103</v>
       </c>
       <c r="D13">
-        <v>0.01050023281362925</v>
+        <v>-0.0192068894738901</v>
       </c>
       <c r="E13">
-        <v>0.01058265281031287</v>
+        <v>0.01026259827097037</v>
       </c>
       <c r="F13">
-        <v>-0.04134278950269137</v>
+        <v>0.04250751799016386</v>
       </c>
       <c r="G13">
-        <v>-0.02341346993500107</v>
+        <v>-0.01892551455210586</v>
       </c>
       <c r="H13">
-        <v>-0.02023654599266481</v>
+        <v>-0.02939249691205734</v>
       </c>
       <c r="I13">
-        <v>0.01989642552547684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.0145938044164638</v>
+      </c>
+      <c r="J13">
+        <v>-0.01489050373064619</v>
+      </c>
+      <c r="K13">
+        <v>0.02145275367425555</v>
+      </c>
+      <c r="L13">
+        <v>-0.08714937753349392</v>
+      </c>
+      <c r="M13">
+        <v>0.008337395486534805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04180872503599772</v>
+        <v>0.04618756988044378</v>
       </c>
       <c r="C14">
-        <v>0.02636619444736893</v>
+        <v>0.0277924160522564</v>
       </c>
       <c r="D14">
-        <v>0.02352568112620585</v>
+        <v>0.007813693595911959</v>
       </c>
       <c r="E14">
-        <v>-0.004806710368883364</v>
+        <v>0.01753784648954256</v>
       </c>
       <c r="F14">
-        <v>0.016485950801295</v>
+        <v>0.0470834648852548</v>
       </c>
       <c r="G14">
-        <v>-0.01943677496524978</v>
+        <v>-0.0197179175996012</v>
       </c>
       <c r="H14">
-        <v>0.09304367373694791</v>
+        <v>-0.06825436349993073</v>
       </c>
       <c r="I14">
-        <v>-0.01049557125117133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.02383345046251205</v>
+      </c>
+      <c r="J14">
+        <v>-0.0535787882297002</v>
+      </c>
+      <c r="K14">
+        <v>0.02343212908649695</v>
+      </c>
+      <c r="L14">
+        <v>-0.05477181673013407</v>
+      </c>
+      <c r="M14">
+        <v>0.03636794781936659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03751172164568777</v>
+        <v>0.03105218751715126</v>
       </c>
       <c r="C15">
-        <v>-0.004652925817704891</v>
+        <v>0.008742757344876487</v>
       </c>
       <c r="D15">
-        <v>-0.005534234925423034</v>
+        <v>-0.06003162102562603</v>
       </c>
       <c r="E15">
-        <v>0.02319143150771128</v>
+        <v>0.00579538203380695</v>
       </c>
       <c r="F15">
-        <v>0.003885400554619935</v>
+        <v>0.002049744405872385</v>
       </c>
       <c r="G15">
-        <v>-0.01839892914346358</v>
+        <v>0.03679045455682443</v>
       </c>
       <c r="H15">
-        <v>0.001618882813000108</v>
+        <v>-0.03882254082751841</v>
       </c>
       <c r="I15">
-        <v>-0.01592215261237315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.02002636960183717</v>
+      </c>
+      <c r="J15">
+        <v>-0.05213418039655461</v>
+      </c>
+      <c r="K15">
+        <v>0.02727483432832762</v>
+      </c>
+      <c r="L15">
+        <v>-0.04135885666625016</v>
+      </c>
+      <c r="M15">
+        <v>-0.001099888211224098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.04992982401293294</v>
+        <v>0.07042478132568826</v>
       </c>
       <c r="C16">
-        <v>0.08848370831857053</v>
+        <v>0.07934906229696136</v>
       </c>
       <c r="D16">
-        <v>0.02947622567662561</v>
+        <v>0.01942872632893689</v>
       </c>
       <c r="E16">
-        <v>0.02623133366922348</v>
+        <v>0.01259044494763435</v>
       </c>
       <c r="F16">
-        <v>-0.03517892919457411</v>
+        <v>0.1102844438582778</v>
       </c>
       <c r="G16">
-        <v>-0.009613199455583893</v>
+        <v>-0.02493563861679297</v>
       </c>
       <c r="H16">
-        <v>-0.01525491387216473</v>
+        <v>-0.0390436133889065</v>
       </c>
       <c r="I16">
-        <v>0.09482407011066939</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.06084763297233532</v>
+      </c>
+      <c r="J16">
+        <v>0.08119994320458676</v>
+      </c>
+      <c r="K16">
+        <v>-0.02910434240444026</v>
+      </c>
+      <c r="L16">
+        <v>-0.01606998661469585</v>
+      </c>
+      <c r="M16">
+        <v>-0.05950065758490037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.03923365328325697</v>
+        <v>0.04263064066479578</v>
       </c>
       <c r="C20">
-        <v>0.0440263348186021</v>
+        <v>0.03078886110372843</v>
       </c>
       <c r="D20">
-        <v>0.01780491078357765</v>
+        <v>-0.02609403527299382</v>
       </c>
       <c r="E20">
-        <v>0.01463165803339083</v>
+        <v>0.02029727436225411</v>
       </c>
       <c r="F20">
-        <v>-0.02468117667751698</v>
+        <v>0.05404545199322934</v>
       </c>
       <c r="G20">
-        <v>-0.02990930676535935</v>
+        <v>-0.026950821177693</v>
       </c>
       <c r="H20">
-        <v>0.002070752592386342</v>
+        <v>-0.04394751612603764</v>
       </c>
       <c r="I20">
-        <v>0.03666428531718768</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.05613695954906674</v>
+      </c>
+      <c r="J20">
+        <v>-0.00954368378021299</v>
+      </c>
+      <c r="K20">
+        <v>0.02876562483884953</v>
+      </c>
+      <c r="L20">
+        <v>-0.06169509217536916</v>
+      </c>
+      <c r="M20">
+        <v>-0.02628700763299884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.006683692022950036</v>
+        <v>0.02327733714599463</v>
       </c>
       <c r="C21">
-        <v>0.01119314434846658</v>
+        <v>0.01880269812091178</v>
       </c>
       <c r="D21">
-        <v>-0.002850310741830714</v>
+        <v>-0.01760588128584278</v>
       </c>
       <c r="E21">
-        <v>0.07225892253303431</v>
+        <v>0.01526309300545003</v>
       </c>
       <c r="F21">
-        <v>0.08846454919599926</v>
+        <v>0.05014158675262844</v>
       </c>
       <c r="G21">
-        <v>0.03196343596707881</v>
+        <v>0.09731861137790536</v>
       </c>
       <c r="H21">
-        <v>-0.004598696187236637</v>
+        <v>-0.00506359630211402</v>
       </c>
       <c r="I21">
-        <v>-0.06803060459699387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.05650480194409117</v>
+      </c>
+      <c r="J21">
+        <v>-0.06315009239191956</v>
+      </c>
+      <c r="K21">
+        <v>0.01939057144497083</v>
+      </c>
+      <c r="L21">
+        <v>-0.06977472013858464</v>
+      </c>
+      <c r="M21">
+        <v>-0.01004772156969057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.01525310120946416</v>
+        <v>0.04155263509455962</v>
       </c>
       <c r="C22">
-        <v>0.04928324606487965</v>
+        <v>0.02854315167101925</v>
       </c>
       <c r="D22">
-        <v>-0.1427357551380875</v>
+        <v>-0.6541507171060289</v>
       </c>
       <c r="E22">
-        <v>0.4774595870733378</v>
+        <v>0.05621731316070998</v>
       </c>
       <c r="F22">
-        <v>0.05367965434157175</v>
+        <v>-0.08275280090233614</v>
       </c>
       <c r="G22">
-        <v>-0.2424644813311109</v>
+        <v>-0.07000032797789055</v>
       </c>
       <c r="H22">
-        <v>-0.26443548522903</v>
+        <v>0.07490024179677313</v>
       </c>
       <c r="I22">
-        <v>-0.03468485834920489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.08450310189386948</v>
+      </c>
+      <c r="J22">
+        <v>-0.01377960005702411</v>
+      </c>
+      <c r="K22">
+        <v>-0.09251808522219385</v>
+      </c>
+      <c r="L22">
+        <v>0.026456384372089</v>
+      </c>
+      <c r="M22">
+        <v>0.0295505232809993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.01616662901887249</v>
+        <v>0.04224895242785474</v>
       </c>
       <c r="C23">
-        <v>0.04792936228751262</v>
+        <v>0.02880442603042051</v>
       </c>
       <c r="D23">
-        <v>-0.1422857952806908</v>
+        <v>-0.6558040632774895</v>
       </c>
       <c r="E23">
-        <v>0.4788495261246938</v>
+        <v>0.05718948244393311</v>
       </c>
       <c r="F23">
-        <v>0.05341102582926739</v>
+        <v>-0.07807395431678966</v>
       </c>
       <c r="G23">
-        <v>-0.2382799245258307</v>
+        <v>-0.07012448823605469</v>
       </c>
       <c r="H23">
-        <v>-0.2622284075687263</v>
+        <v>0.07614096024311594</v>
       </c>
       <c r="I23">
-        <v>-0.03625683456394047</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.08305609617815569</v>
+      </c>
+      <c r="J23">
+        <v>-0.01556104768766081</v>
+      </c>
+      <c r="K23">
+        <v>-0.08932820389627777</v>
+      </c>
+      <c r="L23">
+        <v>0.03085614486091565</v>
+      </c>
+      <c r="M23">
+        <v>0.03174717088942255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06900968087362527</v>
+        <v>0.07633850225117378</v>
       </c>
       <c r="C24">
-        <v>0.08227226245457683</v>
+        <v>0.07649137599759996</v>
       </c>
       <c r="D24">
-        <v>0.04467438169328972</v>
+        <v>0.01740520956267992</v>
       </c>
       <c r="E24">
-        <v>0.03784888396704676</v>
+        <v>0.01807053571014443</v>
       </c>
       <c r="F24">
-        <v>-0.02862598397056128</v>
+        <v>0.111940495804072</v>
       </c>
       <c r="G24">
-        <v>0.01756252374063584</v>
+        <v>-0.01322369487624529</v>
       </c>
       <c r="H24">
-        <v>-0.01913772065569709</v>
+        <v>-0.02553081515273446</v>
       </c>
       <c r="I24">
-        <v>0.04417700412399383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.05382506560873734</v>
+      </c>
+      <c r="J24">
+        <v>0.06718966496656088</v>
+      </c>
+      <c r="K24">
+        <v>-0.02902655554237273</v>
+      </c>
+      <c r="L24">
+        <v>0.01725669187071444</v>
+      </c>
+      <c r="M24">
+        <v>-0.07873176381933933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06194397514211626</v>
+        <v>0.07247263311092637</v>
       </c>
       <c r="C25">
-        <v>0.04182408065833508</v>
+        <v>0.04993894410198741</v>
       </c>
       <c r="D25">
-        <v>0.0370953911935543</v>
+        <v>0.03086299887162999</v>
       </c>
       <c r="E25">
-        <v>0.04289472398139082</v>
+        <v>0.01497750576564531</v>
       </c>
       <c r="F25">
-        <v>-0.0404509536092524</v>
+        <v>0.1183129434518379</v>
       </c>
       <c r="G25">
-        <v>0.005139536868620188</v>
+        <v>-0.0295153846485081</v>
       </c>
       <c r="H25">
-        <v>0.01639465750679374</v>
+        <v>-0.04291992073748605</v>
       </c>
       <c r="I25">
-        <v>0.04247924744078851</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.06015993568846417</v>
+      </c>
+      <c r="J25">
+        <v>0.08114145530972414</v>
+      </c>
+      <c r="K25">
+        <v>-0.02271008284386975</v>
+      </c>
+      <c r="L25">
+        <v>0.03653981144605625</v>
+      </c>
+      <c r="M25">
+        <v>-0.07334640010177859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03701412376294608</v>
+        <v>0.04222831542099455</v>
       </c>
       <c r="C26">
-        <v>0.02732864201298322</v>
+        <v>0.02308228395217098</v>
       </c>
       <c r="D26">
-        <v>0.03920449152482378</v>
+        <v>-0.01396396504617558</v>
       </c>
       <c r="E26">
-        <v>0.0001146438172737386</v>
+        <v>0.001670210114249679</v>
       </c>
       <c r="F26">
-        <v>0.0009002286911974121</v>
+        <v>0.03748124014903358</v>
       </c>
       <c r="G26">
-        <v>-0.03432929182282706</v>
+        <v>-0.00519160522899661</v>
       </c>
       <c r="H26">
-        <v>-0.008249870234558291</v>
+        <v>-0.03875525880223139</v>
       </c>
       <c r="I26">
-        <v>0.01121118241902418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.02095042507554472</v>
+      </c>
+      <c r="J26">
+        <v>-0.09437839187737629</v>
+      </c>
+      <c r="K26">
+        <v>-0.01282504721800574</v>
+      </c>
+      <c r="L26">
+        <v>-0.1325459908120316</v>
+      </c>
+      <c r="M26">
+        <v>0.03927760159748542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1222303932900719</v>
+        <v>0.1439115634671115</v>
       </c>
       <c r="C28">
-        <v>-0.2951304105813095</v>
+        <v>-0.2872745257763887</v>
       </c>
       <c r="D28">
-        <v>0.02494956831454206</v>
+        <v>0.008985437769918812</v>
       </c>
       <c r="E28">
-        <v>-0.01018569383767805</v>
+        <v>0.02416446519542135</v>
       </c>
       <c r="F28">
-        <v>0.06631026002715085</v>
+        <v>-0.003103154479585223</v>
       </c>
       <c r="G28">
-        <v>0.005185078544416383</v>
+        <v>0.01826590677057374</v>
       </c>
       <c r="H28">
-        <v>-0.003108256925115944</v>
+        <v>0.01657161162097377</v>
       </c>
       <c r="I28">
-        <v>0.08699702755378018</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.01226384432721167</v>
+      </c>
+      <c r="J28">
+        <v>0.001900998782344658</v>
+      </c>
+      <c r="K28">
+        <v>0.01485958975639803</v>
+      </c>
+      <c r="L28">
+        <v>-0.04743558580543136</v>
+      </c>
+      <c r="M28">
+        <v>0.02245186042258424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04945040296675299</v>
+        <v>0.04466833016733563</v>
       </c>
       <c r="C29">
-        <v>0.01718300526552204</v>
+        <v>0.02300917567321764</v>
       </c>
       <c r="D29">
-        <v>0.01418115759270822</v>
+        <v>-0.002278414710112952</v>
       </c>
       <c r="E29">
-        <v>0.0273900626395679</v>
+        <v>0.02065756677100941</v>
       </c>
       <c r="F29">
-        <v>-0.004977799905028925</v>
+        <v>0.04890604300180472</v>
       </c>
       <c r="G29">
-        <v>-0.01379240283265806</v>
+        <v>-0.03591248384604914</v>
       </c>
       <c r="H29">
-        <v>0.03680974463142764</v>
+        <v>-0.05343910790824431</v>
       </c>
       <c r="I29">
-        <v>0.008820707419079777</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.02121357409344836</v>
+      </c>
+      <c r="J29">
+        <v>-0.04610956739417175</v>
+      </c>
+      <c r="K29">
+        <v>0.01166969414611779</v>
+      </c>
+      <c r="L29">
+        <v>-0.03835068741617491</v>
+      </c>
+      <c r="M29">
+        <v>0.0262387578090678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1171361927055377</v>
+        <v>0.0975665989180465</v>
       </c>
       <c r="C30">
-        <v>0.07523345292255872</v>
+        <v>0.06554419520645015</v>
       </c>
       <c r="D30">
-        <v>0.06953865356589436</v>
+        <v>-0.002917366236130252</v>
       </c>
       <c r="E30">
-        <v>0.05316846782520562</v>
+        <v>0.03025468132742024</v>
       </c>
       <c r="F30">
-        <v>0.02680359432590265</v>
+        <v>0.1765150412425279</v>
       </c>
       <c r="G30">
-        <v>-0.01402987984270982</v>
+        <v>-0.05804352031729475</v>
       </c>
       <c r="H30">
-        <v>0.008012930439084322</v>
+        <v>0.01597382542974158</v>
       </c>
       <c r="I30">
-        <v>0.08838825071266983</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.2890173054780221</v>
+      </c>
+      <c r="J30">
+        <v>-0.03182576302189915</v>
+      </c>
+      <c r="K30">
+        <v>0.02190672752941386</v>
+      </c>
+      <c r="L30">
+        <v>-0.2064726476349644</v>
+      </c>
+      <c r="M30">
+        <v>0.0728562037322921</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04526388684750299</v>
+        <v>0.03497978478948846</v>
       </c>
       <c r="C31">
-        <v>0.02431997660723094</v>
+        <v>0.04396117971200036</v>
       </c>
       <c r="D31">
-        <v>0.002640068352425945</v>
+        <v>-0.006112659399172249</v>
       </c>
       <c r="E31">
-        <v>-0.004306435452843449</v>
+        <v>-0.003425271324234924</v>
       </c>
       <c r="F31">
-        <v>-0.006159112454854778</v>
+        <v>0.01449777155816664</v>
       </c>
       <c r="G31">
-        <v>-0.04603865335456308</v>
+        <v>-0.02936019067938152</v>
       </c>
       <c r="H31">
-        <v>-0.01228117728650632</v>
+        <v>-0.04685610123604834</v>
       </c>
       <c r="I31">
-        <v>-0.01111133535370364</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>-0.01186027298846718</v>
+      </c>
+      <c r="J31">
+        <v>0.004030593189339793</v>
+      </c>
+      <c r="K31">
+        <v>0.0273371389745806</v>
+      </c>
+      <c r="L31">
+        <v>-0.02057480846210586</v>
+      </c>
+      <c r="M31">
+        <v>-0.005740257088120643</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02102543095572817</v>
+        <v>0.04523923931745588</v>
       </c>
       <c r="C32">
-        <v>-0.005686830688550378</v>
+        <v>-0.002868655580648829</v>
       </c>
       <c r="D32">
-        <v>-0.04335331588951833</v>
+        <v>-0.0007268753927317176</v>
       </c>
       <c r="E32">
-        <v>0.07689632057311473</v>
+        <v>-0.007238821440790189</v>
       </c>
       <c r="F32">
-        <v>-0.03996007079834824</v>
+        <v>0.08871105274219401</v>
       </c>
       <c r="G32">
-        <v>-0.01456505278826162</v>
+        <v>0.03795126162515271</v>
       </c>
       <c r="H32">
-        <v>-0.03841918775541966</v>
+        <v>-0.04818428118206918</v>
       </c>
       <c r="I32">
-        <v>0.08998992785854772</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>-0.05945987030134542</v>
+      </c>
+      <c r="J32">
+        <v>0.03161844694343709</v>
+      </c>
+      <c r="K32">
+        <v>0.007875410900222493</v>
+      </c>
+      <c r="L32">
+        <v>-0.05845784681281113</v>
+      </c>
+      <c r="M32">
+        <v>0.1057361191662568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1002466616484375</v>
+        <v>0.09633319623075433</v>
       </c>
       <c r="C33">
-        <v>0.06137306176618487</v>
+        <v>0.06680680443188415</v>
       </c>
       <c r="D33">
-        <v>0.00739791178297455</v>
+        <v>0.007784056289459278</v>
       </c>
       <c r="E33">
-        <v>0.00128614803281947</v>
+        <v>-0.01698163544327712</v>
       </c>
       <c r="F33">
-        <v>-0.0330370388222009</v>
+        <v>0.06492353521479252</v>
       </c>
       <c r="G33">
-        <v>-0.03206531782081416</v>
+        <v>-0.0312029794500663</v>
       </c>
       <c r="H33">
-        <v>-0.02072265140257799</v>
+        <v>-0.05497867154005603</v>
       </c>
       <c r="I33">
-        <v>0.01875023231493695</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.02890322548102588</v>
+      </c>
+      <c r="J33">
+        <v>-0.03955258730145227</v>
+      </c>
+      <c r="K33">
+        <v>-0.007542059845187275</v>
+      </c>
+      <c r="L33">
+        <v>-0.01169886141931042</v>
+      </c>
+      <c r="M33">
+        <v>-0.02689812813533971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05108878131886919</v>
+        <v>0.06282663097394525</v>
       </c>
       <c r="C34">
-        <v>0.0809215343896688</v>
+        <v>0.06354949391281998</v>
       </c>
       <c r="D34">
-        <v>0.0238344702174262</v>
+        <v>0.02548580634014595</v>
       </c>
       <c r="E34">
-        <v>0.03948789936488046</v>
+        <v>0.009833599439296188</v>
       </c>
       <c r="F34">
-        <v>-0.02254077584999698</v>
+        <v>0.09878554541179056</v>
       </c>
       <c r="G34">
-        <v>0.002587562981538375</v>
+        <v>-0.01796697983208504</v>
       </c>
       <c r="H34">
-        <v>-0.01445458999663456</v>
+        <v>-0.04552719367313557</v>
       </c>
       <c r="I34">
-        <v>0.05026944233156914</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.03950682347865803</v>
+      </c>
+      <c r="J34">
+        <v>0.05463315803053088</v>
+      </c>
+      <c r="K34">
+        <v>-0.01957561199049435</v>
+      </c>
+      <c r="L34">
+        <v>0.007756341294576927</v>
+      </c>
+      <c r="M34">
+        <v>-0.08579526130178053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03712863105268366</v>
+        <v>0.02663325588837951</v>
       </c>
       <c r="C35">
-        <v>0.02825392210148831</v>
+        <v>0.02309239949854013</v>
       </c>
       <c r="D35">
-        <v>0.009386799690955426</v>
+        <v>-0.00336361262680406</v>
       </c>
       <c r="E35">
-        <v>0.02821785979448761</v>
+        <v>0.001098439837146022</v>
       </c>
       <c r="F35">
-        <v>-0.02120127549551277</v>
+        <v>0.01684579973884586</v>
       </c>
       <c r="G35">
-        <v>-0.03260428187231639</v>
+        <v>-0.02371823851917378</v>
       </c>
       <c r="H35">
-        <v>-0.02350684275698669</v>
+        <v>-0.03742626166309139</v>
       </c>
       <c r="I35">
-        <v>0.03358126462381784</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.05201191122279059</v>
+      </c>
+      <c r="J35">
+        <v>0.01113244964064803</v>
+      </c>
+      <c r="K35">
+        <v>-0.02357646385139425</v>
+      </c>
+      <c r="L35">
+        <v>-0.06156511005014215</v>
+      </c>
+      <c r="M35">
+        <v>0.007743369618702568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02710640228916132</v>
+        <v>0.02941535586984544</v>
       </c>
       <c r="C36">
-        <v>0.01735572121312973</v>
+        <v>0.02012171142218453</v>
       </c>
       <c r="D36">
-        <v>0.02964858439967153</v>
+        <v>-0.0139097814632352</v>
       </c>
       <c r="E36">
-        <v>0.02183836656056909</v>
+        <v>0.01538658562547185</v>
       </c>
       <c r="F36">
-        <v>-0.01652379653380105</v>
+        <v>0.05967787606102561</v>
       </c>
       <c r="G36">
-        <v>-0.0234432628618353</v>
+        <v>-0.01455654287171528</v>
       </c>
       <c r="H36">
-        <v>0.01243763159381985</v>
+        <v>-0.04250875002848771</v>
       </c>
       <c r="I36">
-        <v>-0.004984191939451025</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.03687174423420111</v>
+      </c>
+      <c r="J36">
+        <v>-0.03734923789245787</v>
+      </c>
+      <c r="K36">
+        <v>0.01011164537404319</v>
+      </c>
+      <c r="L36">
+        <v>-0.03864446489597442</v>
+      </c>
+      <c r="M36">
+        <v>-0.0216840168179769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04053955045237575</v>
+        <v>0.03165370650838319</v>
       </c>
       <c r="C38">
-        <v>0.03207530166892981</v>
+        <v>0.04760597931275608</v>
       </c>
       <c r="D38">
-        <v>-0.02905256483630485</v>
+        <v>-0.0248598202732046</v>
       </c>
       <c r="E38">
-        <v>0.03663507126753943</v>
+        <v>-0.001094077156979151</v>
       </c>
       <c r="F38">
-        <v>-0.003671835953680514</v>
+        <v>-0.04357467028003265</v>
       </c>
       <c r="G38">
-        <v>-0.0007762240571178805</v>
+        <v>-0.04564183960942512</v>
       </c>
       <c r="H38">
-        <v>-0.04623533790452078</v>
+        <v>0.04661552522563135</v>
       </c>
       <c r="I38">
-        <v>0.02062777599381729</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>-0.02429860359055751</v>
+      </c>
+      <c r="J38">
+        <v>-0.08659584983394458</v>
+      </c>
+      <c r="K38">
+        <v>-0.09109677861902643</v>
+      </c>
+      <c r="L38">
+        <v>-0.06468851431267139</v>
+      </c>
+      <c r="M38">
+        <v>0.04792141116409752</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09527507274439304</v>
+        <v>0.09725980907904322</v>
       </c>
       <c r="C39">
-        <v>0.1061883154360403</v>
+        <v>0.08969069101502426</v>
       </c>
       <c r="D39">
-        <v>0.02173742191927905</v>
+        <v>0.07902946654474831</v>
       </c>
       <c r="E39">
-        <v>0.02713495422031732</v>
+        <v>-0.01669839249147144</v>
       </c>
       <c r="F39">
-        <v>-0.02589496982303907</v>
+        <v>0.1496732017735659</v>
       </c>
       <c r="G39">
-        <v>0.04665057112850631</v>
+        <v>-0.09140689258973263</v>
       </c>
       <c r="H39">
-        <v>-0.0520075368468958</v>
+        <v>0.01211977657283476</v>
       </c>
       <c r="I39">
-        <v>0.1566868065164572</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1352481585557677</v>
+      </c>
+      <c r="J39">
+        <v>0.193851590023949</v>
+      </c>
+      <c r="K39">
+        <v>-0.05758816778617216</v>
+      </c>
+      <c r="L39">
+        <v>-0.05290634447161992</v>
+      </c>
+      <c r="M39">
+        <v>0.01828254189378842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.05387577359772509</v>
+        <v>0.03644233990431502</v>
       </c>
       <c r="C40">
-        <v>0.04197287972569454</v>
+        <v>0.05825203707643561</v>
       </c>
       <c r="D40">
-        <v>-0.03325131923347067</v>
+        <v>-0.05036969553190065</v>
       </c>
       <c r="E40">
-        <v>0.1340339974921407</v>
+        <v>-0.001069258434133534</v>
       </c>
       <c r="F40">
-        <v>-0.04034657778510788</v>
+        <v>0.1236168722919083</v>
       </c>
       <c r="G40">
-        <v>-0.01409216956707815</v>
+        <v>0.06391444293555451</v>
       </c>
       <c r="H40">
-        <v>-0.04974213219600996</v>
+        <v>-0.01138490393115892</v>
       </c>
       <c r="I40">
-        <v>0.1609943890337383</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.01198172217216449</v>
+      </c>
+      <c r="J40">
+        <v>-0.06087244035953527</v>
+      </c>
+      <c r="K40">
+        <v>-0.1246050546569379</v>
+      </c>
+      <c r="L40">
+        <v>-0.1075296134359165</v>
+      </c>
+      <c r="M40">
+        <v>0.007246159626061027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04375221751652055</v>
+        <v>0.03576779094110898</v>
       </c>
       <c r="C41">
-        <v>0.05685511031982789</v>
+        <v>0.03713410856157784</v>
       </c>
       <c r="D41">
-        <v>0.009704362360677831</v>
+        <v>0.01737447130987777</v>
       </c>
       <c r="E41">
-        <v>0.0008944577063502628</v>
+        <v>-0.004450569058883045</v>
       </c>
       <c r="F41">
-        <v>-0.02532851714870966</v>
+        <v>0.01793864282096798</v>
       </c>
       <c r="G41">
-        <v>-0.01427893273538012</v>
+        <v>-0.0262717081957066</v>
       </c>
       <c r="H41">
-        <v>-0.0234587481309847</v>
+        <v>-0.005031175746864629</v>
       </c>
       <c r="I41">
-        <v>0.03941410862429034</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>-0.01246485471878094</v>
+      </c>
+      <c r="J41">
+        <v>-0.008501645046135313</v>
+      </c>
+      <c r="K41">
+        <v>-0.01455703214745343</v>
+      </c>
+      <c r="L41">
+        <v>-0.04288620146537495</v>
+      </c>
+      <c r="M41">
+        <v>-0.02910019290085528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05420056739048133</v>
+        <v>0.05033584271332733</v>
       </c>
       <c r="C43">
-        <v>0.04364729292718111</v>
+        <v>0.04752252869907338</v>
       </c>
       <c r="D43">
-        <v>0.02681638872457822</v>
+        <v>-0.0131199649949386</v>
       </c>
       <c r="E43">
-        <v>0.01844275408883374</v>
+        <v>0.01333798882263842</v>
       </c>
       <c r="F43">
-        <v>0.0001669598265883144</v>
+        <v>0.01604969235514348</v>
       </c>
       <c r="G43">
-        <v>-0.02536969167451626</v>
+        <v>-0.05783931813658308</v>
       </c>
       <c r="H43">
-        <v>-0.04065298059218769</v>
+        <v>0.001356752074378944</v>
       </c>
       <c r="I43">
-        <v>-0.01451092980822473</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.002140752998376909</v>
+      </c>
+      <c r="J43">
+        <v>0.006148338937155562</v>
+      </c>
+      <c r="K43">
+        <v>-0.001533345350041231</v>
+      </c>
+      <c r="L43">
+        <v>-0.02969290328594725</v>
+      </c>
+      <c r="M43">
+        <v>-0.0306951218213161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05265979470571031</v>
+        <v>0.08195697599307059</v>
       </c>
       <c r="C44">
-        <v>0.0284695702779351</v>
+        <v>0.060776503063777</v>
       </c>
       <c r="D44">
-        <v>0.06419746224580246</v>
+        <v>-0.06709995547773848</v>
       </c>
       <c r="E44">
-        <v>0.1250541132657958</v>
+        <v>0.0919798806339496</v>
       </c>
       <c r="F44">
-        <v>-0.03749003656713705</v>
+        <v>0.1548395377560891</v>
       </c>
       <c r="G44">
-        <v>0.01544405652362355</v>
+        <v>-0.005154927805013094</v>
       </c>
       <c r="H44">
-        <v>0.01906799167147197</v>
+        <v>-0.0718417760189986</v>
       </c>
       <c r="I44">
-        <v>0.1164286594409084</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.0525155674452636</v>
+      </c>
+      <c r="J44">
+        <v>0.006991321593661167</v>
+      </c>
+      <c r="K44">
+        <v>-0.0495236036816762</v>
+      </c>
+      <c r="L44">
+        <v>-0.06398680230336908</v>
+      </c>
+      <c r="M44">
+        <v>0.06959542983532281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.02081959299213853</v>
+        <v>0.03460413389084954</v>
       </c>
       <c r="C46">
-        <v>0.03935317676649299</v>
+        <v>0.03821124589125868</v>
       </c>
       <c r="D46">
-        <v>0.01580298376816575</v>
+        <v>-0.04768789320159787</v>
       </c>
       <c r="E46">
-        <v>0.04723860439988447</v>
+        <v>0.03630115587692365</v>
       </c>
       <c r="F46">
-        <v>0.001179667500229355</v>
+        <v>0.02106707395669041</v>
       </c>
       <c r="G46">
-        <v>-0.00408690595823108</v>
+        <v>0.008729315470041804</v>
       </c>
       <c r="H46">
-        <v>0.0009422642300723069</v>
+        <v>-0.06469502712112347</v>
       </c>
       <c r="I46">
-        <v>0.02324771435162596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.00179498599483844</v>
+      </c>
+      <c r="J46">
+        <v>-0.07260427228099309</v>
+      </c>
+      <c r="K46">
+        <v>0.007402916356736934</v>
+      </c>
+      <c r="L46">
+        <v>-0.05529954939542572</v>
+      </c>
+      <c r="M46">
+        <v>0.005759434356433125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.02642905556132695</v>
+        <v>0.04479040800028786</v>
       </c>
       <c r="C47">
-        <v>-5.477054747239346e-05</v>
+        <v>0.02706677139522013</v>
       </c>
       <c r="D47">
-        <v>-0.01033661493808808</v>
+        <v>-0.02197467020999934</v>
       </c>
       <c r="E47">
-        <v>0.06800593082690175</v>
+        <v>0.007613223992163084</v>
       </c>
       <c r="F47">
-        <v>-0.01734547827598945</v>
+        <v>0.02979253938237532</v>
       </c>
       <c r="G47">
-        <v>-0.03356324783139834</v>
+        <v>-0.02770687379252323</v>
       </c>
       <c r="H47">
-        <v>0.02292091149813133</v>
+        <v>-0.02659016346813992</v>
       </c>
       <c r="I47">
-        <v>-0.01995313275418299</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.03199799058804695</v>
+      </c>
+      <c r="J47">
+        <v>-0.04644218042812229</v>
+      </c>
+      <c r="K47">
+        <v>0.0005797375407220302</v>
+      </c>
+      <c r="L47">
+        <v>-0.01118862882905138</v>
+      </c>
+      <c r="M47">
+        <v>-0.04083199465589008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03234698189803566</v>
+        <v>0.04241681542745177</v>
       </c>
       <c r="C48">
-        <v>0.02527846184194533</v>
+        <v>0.02035613245027099</v>
       </c>
       <c r="D48">
-        <v>0.005711403763506475</v>
+        <v>-0.0143977820807359</v>
       </c>
       <c r="E48">
-        <v>0.04632576002059176</v>
+        <v>0.001950608270928261</v>
       </c>
       <c r="F48">
-        <v>-0.01149904397060969</v>
+        <v>0.06288916344719861</v>
       </c>
       <c r="G48">
-        <v>-0.04343387682566931</v>
+        <v>0.01876651914828367</v>
       </c>
       <c r="H48">
-        <v>-0.02459644768735963</v>
+        <v>-0.05342476256088814</v>
       </c>
       <c r="I48">
-        <v>-0.002154726193056324</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.03771397726287087</v>
+      </c>
+      <c r="J48">
+        <v>-0.003782393045808533</v>
+      </c>
+      <c r="K48">
+        <v>0.006574176933602516</v>
+      </c>
+      <c r="L48">
+        <v>-0.05220182195355954</v>
+      </c>
+      <c r="M48">
+        <v>-0.02369976531221925</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1882363064884133</v>
+        <v>0.2240106422575846</v>
       </c>
       <c r="C49">
-        <v>0.1298680677475447</v>
+        <v>0.08645561678672654</v>
       </c>
       <c r="D49">
-        <v>0.08214754273465502</v>
+        <v>0.0664328222346026</v>
       </c>
       <c r="E49">
-        <v>-0.08175524317152921</v>
+        <v>0.02787318440646745</v>
       </c>
       <c r="F49">
-        <v>0.1869542765287646</v>
+        <v>-0.230784210464973</v>
       </c>
       <c r="G49">
-        <v>0.06169673738496564</v>
+        <v>0.150587250844967</v>
       </c>
       <c r="H49">
-        <v>0.0389862012010122</v>
+        <v>0.04463116054647075</v>
       </c>
       <c r="I49">
-        <v>0.01582479679532954</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.09834883576868053</v>
+      </c>
+      <c r="J49">
+        <v>0.1117723336290456</v>
+      </c>
+      <c r="K49">
+        <v>-0.1507516885395102</v>
+      </c>
+      <c r="L49">
+        <v>0.125766721920393</v>
+      </c>
+      <c r="M49">
+        <v>-0.08626218864319736</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05342692335857106</v>
+        <v>0.04289105060852363</v>
       </c>
       <c r="C50">
-        <v>0.03263528974501814</v>
+        <v>0.04255838986975918</v>
       </c>
       <c r="D50">
-        <v>0.006841100207416922</v>
+        <v>-0.003432014711504335</v>
       </c>
       <c r="E50">
-        <v>0.02329167843961073</v>
+        <v>-0.008910166002357344</v>
       </c>
       <c r="F50">
-        <v>-0.0341201225140759</v>
+        <v>0.0413412179180307</v>
       </c>
       <c r="G50">
-        <v>-0.0634670649863087</v>
+        <v>-0.03932399341578918</v>
       </c>
       <c r="H50">
-        <v>0.02658594243390869</v>
+        <v>-0.04276813608087313</v>
       </c>
       <c r="I50">
-        <v>-0.008564687419326932</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.01303610827135286</v>
+      </c>
+      <c r="J50">
+        <v>-0.04240629835307865</v>
+      </c>
+      <c r="K50">
+        <v>0.03115704770957594</v>
+      </c>
+      <c r="L50">
+        <v>-0.02216305352025907</v>
+      </c>
+      <c r="M50">
+        <v>0.04488735724500676</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02444714249185253</v>
+        <v>0.0302979155966369</v>
       </c>
       <c r="C51">
-        <v>0.01422059193141853</v>
+        <v>0.00606014139613018</v>
       </c>
       <c r="D51">
-        <v>-0.009099772742994722</v>
+        <v>0.001872202958469017</v>
       </c>
       <c r="E51">
-        <v>0.0116788036525959</v>
+        <v>0.0165660531188194</v>
       </c>
       <c r="F51">
-        <v>0.009072752828511816</v>
+        <v>-0.01746776305150192</v>
       </c>
       <c r="G51">
-        <v>0.02967261647543979</v>
+        <v>-0.001900006578872452</v>
       </c>
       <c r="H51">
-        <v>-0.0003301789562186642</v>
+        <v>0.02612560917203906</v>
       </c>
       <c r="I51">
-        <v>0.0290717976041692</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.008322652523280199</v>
+      </c>
+      <c r="J51">
+        <v>0.06735037705179585</v>
+      </c>
+      <c r="K51">
+        <v>-0.02411264146181503</v>
+      </c>
+      <c r="L51">
+        <v>0.05344196715670728</v>
+      </c>
+      <c r="M51">
+        <v>-0.01714422327656215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.01121941852203952</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.003024939407848244</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01425334622444265</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.002543178879873335</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.005444361723501287</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.003290672347702164</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.004490598155758824</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.004325069745788542</v>
+      </c>
+      <c r="J52">
+        <v>0.02127422319958709</v>
+      </c>
+      <c r="K52">
+        <v>0.01729600218377016</v>
+      </c>
+      <c r="L52">
+        <v>-0.01077729884964515</v>
+      </c>
+      <c r="M52">
+        <v>0.02757278334958081</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1667434187911652</v>
+        <v>0.1540341863582406</v>
       </c>
       <c r="C53">
-        <v>0.01573155521500355</v>
+        <v>0.04636818507284805</v>
       </c>
       <c r="D53">
-        <v>0.03340194050034903</v>
+        <v>0.0140105666563422</v>
       </c>
       <c r="E53">
-        <v>-0.0623212668946958</v>
+        <v>-0.00533172604114722</v>
       </c>
       <c r="F53">
-        <v>-0.2575149085010808</v>
+        <v>-0.06164567634791006</v>
       </c>
       <c r="G53">
-        <v>-0.06959080449959307</v>
+        <v>-0.2139659920902322</v>
       </c>
       <c r="H53">
-        <v>-0.01994423658228685</v>
+        <v>-0.04940874958324717</v>
       </c>
       <c r="I53">
-        <v>-0.04487096805308802</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>-0.1132833136989757</v>
+      </c>
+      <c r="J53">
+        <v>-0.06541585357739611</v>
+      </c>
+      <c r="K53">
+        <v>0.02936534940485102</v>
+      </c>
+      <c r="L53">
+        <v>0.06523682820908068</v>
+      </c>
+      <c r="M53">
+        <v>0.1110174311472416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.0509621758542858</v>
+        <v>0.0592977179685896</v>
       </c>
       <c r="C54">
-        <v>0.03930640176134258</v>
+        <v>0.03439161673426872</v>
       </c>
       <c r="D54">
-        <v>0.03510827621602492</v>
+        <v>-0.02096218667830279</v>
       </c>
       <c r="E54">
-        <v>0.03253055678380889</v>
+        <v>0.02689205121901104</v>
       </c>
       <c r="F54">
-        <v>-0.014338785959962</v>
+        <v>0.09987932794105417</v>
       </c>
       <c r="G54">
-        <v>-0.01437874169216733</v>
+        <v>0.02096303614424838</v>
       </c>
       <c r="H54">
-        <v>-0.01057773465664933</v>
+        <v>-0.06146524399923834</v>
       </c>
       <c r="I54">
-        <v>-0.01156436088128795</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>-0.001370093508573225</v>
+      </c>
+      <c r="J54">
+        <v>-0.07527436992603714</v>
+      </c>
+      <c r="K54">
+        <v>0.06688675815533973</v>
+      </c>
+      <c r="L54">
+        <v>-0.09063977722114257</v>
+      </c>
+      <c r="M54">
+        <v>-0.007876686777909484</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09238993696016071</v>
+        <v>0.08535202519010324</v>
       </c>
       <c r="C55">
-        <v>0.003693118611496733</v>
+        <v>0.03628363678972971</v>
       </c>
       <c r="D55">
-        <v>0.03052890580581878</v>
+        <v>0.02449161953580732</v>
       </c>
       <c r="E55">
-        <v>0.0008490250088550297</v>
+        <v>0.006666146072989491</v>
       </c>
       <c r="F55">
-        <v>-0.2204458207517501</v>
+        <v>0.009298076451444705</v>
       </c>
       <c r="G55">
-        <v>-0.07632365324404118</v>
+        <v>-0.148039515788457</v>
       </c>
       <c r="H55">
-        <v>0.01488806630527002</v>
+        <v>-0.05643960999921498</v>
       </c>
       <c r="I55">
-        <v>-0.03205202685630644</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>-0.07097692900760703</v>
+      </c>
+      <c r="J55">
+        <v>-0.0426288979119115</v>
+      </c>
+      <c r="K55">
+        <v>0.01486497139677676</v>
+      </c>
+      <c r="L55">
+        <v>0.05139990866199393</v>
+      </c>
+      <c r="M55">
+        <v>0.05974877701510366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1673193211088207</v>
+        <v>0.1492979564377904</v>
       </c>
       <c r="C56">
-        <v>0.01309722673671162</v>
+        <v>0.06816266459607287</v>
       </c>
       <c r="D56">
-        <v>0.05583555131608296</v>
+        <v>0.03115377802261501</v>
       </c>
       <c r="E56">
-        <v>-0.0542044193974922</v>
+        <v>0.01126014646595524</v>
       </c>
       <c r="F56">
-        <v>-0.2283017316610001</v>
+        <v>-0.03542654897197569</v>
       </c>
       <c r="G56">
-        <v>-0.07519160404763965</v>
+        <v>-0.2150375604446762</v>
       </c>
       <c r="H56">
-        <v>-0.03331769275323216</v>
+        <v>-0.02033520819890466</v>
       </c>
       <c r="I56">
-        <v>-0.07224679480209156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>-0.1431590137009486</v>
+      </c>
+      <c r="J56">
+        <v>-0.06889964167152557</v>
+      </c>
+      <c r="K56">
+        <v>0.01032001550299391</v>
+      </c>
+      <c r="L56">
+        <v>0.04999758503678739</v>
+      </c>
+      <c r="M56">
+        <v>0.07791432168683571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.0395419960252134</v>
+        <v>0.03850085036889067</v>
       </c>
       <c r="C58">
-        <v>0.04366143493346256</v>
+        <v>0.03120510168700436</v>
       </c>
       <c r="D58">
-        <v>0.01194006364429194</v>
+        <v>-0.0847513637285323</v>
       </c>
       <c r="E58">
-        <v>0.3292583889519852</v>
+        <v>0.03318117105709065</v>
       </c>
       <c r="F58">
-        <v>0.18453643119848</v>
+        <v>0.03498729315344943</v>
       </c>
       <c r="G58">
-        <v>-0.1168928179213056</v>
+        <v>0.0468145599541233</v>
       </c>
       <c r="H58">
-        <v>0.1483343927844147</v>
+        <v>-0.04180523586931335</v>
       </c>
       <c r="I58">
-        <v>-0.01883742005568432</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.2864274305069366</v>
+      </c>
+      <c r="J58">
+        <v>0.2172103563787173</v>
+      </c>
+      <c r="K58">
+        <v>0.1383077745322707</v>
+      </c>
+      <c r="L58">
+        <v>0.0002798280492338966</v>
+      </c>
+      <c r="M58">
+        <v>-0.2270718385050626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2510785380732766</v>
+        <v>0.2301405347009095</v>
       </c>
       <c r="C59">
-        <v>-0.4054159709436868</v>
+        <v>-0.299918111920259</v>
       </c>
       <c r="D59">
-        <v>0.02102011861840365</v>
+        <v>0.04042585006249708</v>
       </c>
       <c r="E59">
-        <v>0.02660510833212121</v>
+        <v>0.006118628420856661</v>
       </c>
       <c r="F59">
-        <v>-0.04708623010111273</v>
+        <v>0.02385423772420266</v>
       </c>
       <c r="G59">
-        <v>0.06104421734363505</v>
+        <v>-0.05431939018785025</v>
       </c>
       <c r="H59">
-        <v>-0.06526213255330386</v>
+        <v>0.02443294172172716</v>
       </c>
       <c r="I59">
-        <v>0.02142544710820531</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>-0.1271619208791334</v>
+      </c>
+      <c r="J59">
+        <v>0.06919497410641222</v>
+      </c>
+      <c r="K59">
+        <v>-0.01336818026607127</v>
+      </c>
+      <c r="L59">
+        <v>0.028495089088354</v>
+      </c>
+      <c r="M59">
+        <v>-0.005290564187460311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2476233563971413</v>
+        <v>0.2418010583474244</v>
       </c>
       <c r="C60">
-        <v>0.07561952111196463</v>
+        <v>0.1183252462512127</v>
       </c>
       <c r="D60">
-        <v>0.08539433013878925</v>
+        <v>0.06520893270990329</v>
       </c>
       <c r="E60">
-        <v>0.02262299119277384</v>
+        <v>0.03714490915468106</v>
       </c>
       <c r="F60">
-        <v>0.06561988207254318</v>
+        <v>-0.1008833565833647</v>
       </c>
       <c r="G60">
-        <v>0.04898086009487843</v>
+        <v>0.03037453226869135</v>
       </c>
       <c r="H60">
-        <v>0.04376655827403795</v>
+        <v>0.1055956269992121</v>
       </c>
       <c r="I60">
-        <v>-0.07446621216890445</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>-0.006936050359078945</v>
+      </c>
+      <c r="J60">
+        <v>-0.01322210783315303</v>
+      </c>
+      <c r="K60">
+        <v>0.0346010900726038</v>
+      </c>
+      <c r="L60">
+        <v>0.1996013942147524</v>
+      </c>
+      <c r="M60">
+        <v>-0.008725397031171476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.08215119227005867</v>
+        <v>0.09048152517711576</v>
       </c>
       <c r="C61">
-        <v>0.06056242177353242</v>
+        <v>0.06520263729959182</v>
       </c>
       <c r="D61">
-        <v>0.02575800132340864</v>
+        <v>0.041544774509137</v>
       </c>
       <c r="E61">
-        <v>0.00357362139418572</v>
+        <v>0.01217843617721411</v>
       </c>
       <c r="F61">
-        <v>-0.01618556913830438</v>
+        <v>0.1166957405651048</v>
       </c>
       <c r="G61">
-        <v>-0.0007798942701306182</v>
+        <v>-0.07613763161332936</v>
       </c>
       <c r="H61">
-        <v>-0.02415738359948324</v>
+        <v>-0.02099708884810948</v>
       </c>
       <c r="I61">
-        <v>0.08031248261481221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.0557175938588844</v>
+      </c>
+      <c r="J61">
+        <v>0.07076079670895</v>
+      </c>
+      <c r="K61">
+        <v>-0.02631563356063301</v>
+      </c>
+      <c r="L61">
+        <v>-0.0527652652281705</v>
+      </c>
+      <c r="M61">
+        <v>0.003045986758091329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1691301538843697</v>
+        <v>0.1452861841494592</v>
       </c>
       <c r="C62">
-        <v>0.05673206916847495</v>
+        <v>0.07699177450175242</v>
       </c>
       <c r="D62">
-        <v>0.03369432162799779</v>
+        <v>0.03040360891690271</v>
       </c>
       <c r="E62">
-        <v>-0.09585081536697942</v>
+        <v>-0.02449337806633687</v>
       </c>
       <c r="F62">
-        <v>-0.2589622467464818</v>
+        <v>-0.0181986268662012</v>
       </c>
       <c r="G62">
-        <v>-0.02319181896316546</v>
+        <v>-0.159240309786392</v>
       </c>
       <c r="H62">
-        <v>-0.04399749489681744</v>
+        <v>-0.06684340803815844</v>
       </c>
       <c r="I62">
-        <v>-0.01928146681544201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>-0.1269802677967295</v>
+      </c>
+      <c r="J62">
+        <v>-0.1455459888028449</v>
+      </c>
+      <c r="K62">
+        <v>-0.01161437484683157</v>
+      </c>
+      <c r="L62">
+        <v>0.06013557908247892</v>
+      </c>
+      <c r="M62">
+        <v>0.07750085678423932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.0438452022271664</v>
+        <v>0.04478218612678128</v>
       </c>
       <c r="C63">
-        <v>0.03995219801270217</v>
+        <v>0.02673605679808325</v>
       </c>
       <c r="D63">
-        <v>0.02261257471965291</v>
+        <v>0.005055911740055708</v>
       </c>
       <c r="E63">
-        <v>0.01394646097551705</v>
+        <v>-0.009494426368115309</v>
       </c>
       <c r="F63">
-        <v>-0.03335808114285774</v>
+        <v>0.05982729702137234</v>
       </c>
       <c r="G63">
-        <v>-0.02809115508480456</v>
+        <v>-0.01167169868799053</v>
       </c>
       <c r="H63">
-        <v>0.05431449697838645</v>
+        <v>-0.03341943602611049</v>
       </c>
       <c r="I63">
-        <v>0.009550175338561733</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.0507642695068228</v>
+      </c>
+      <c r="J63">
+        <v>-0.02370387766008479</v>
+      </c>
+      <c r="K63">
+        <v>0.02590128812494215</v>
+      </c>
+      <c r="L63">
+        <v>-0.01701373415764207</v>
+      </c>
+      <c r="M63">
+        <v>0.01113634480960239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.102091706766131</v>
+        <v>0.1006076768240419</v>
       </c>
       <c r="C64">
-        <v>0.03741138035202889</v>
+        <v>0.05006829338958536</v>
       </c>
       <c r="D64">
-        <v>0.03725125648694061</v>
+        <v>-0.00465293871731286</v>
       </c>
       <c r="E64">
-        <v>0.03740510613496856</v>
+        <v>0.03428760685565207</v>
       </c>
       <c r="F64">
-        <v>0.01790083523419806</v>
+        <v>0.06312901733119548</v>
       </c>
       <c r="G64">
-        <v>2.625843583034787e-05</v>
+        <v>-0.01566219745849683</v>
       </c>
       <c r="H64">
-        <v>0.001461368114493707</v>
+        <v>0.01029791675832491</v>
       </c>
       <c r="I64">
-        <v>0.08942428481606125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.0834830590717979</v>
+      </c>
+      <c r="J64">
+        <v>0.007638942814715598</v>
+      </c>
+      <c r="K64">
+        <v>-0.003291535289556677</v>
+      </c>
+      <c r="L64">
+        <v>-0.04868871063742488</v>
+      </c>
+      <c r="M64">
+        <v>0.02545964206033931</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1294546421116136</v>
+        <v>0.1250248026098011</v>
       </c>
       <c r="C65">
-        <v>0.05945836461208334</v>
+        <v>0.04670207659054389</v>
       </c>
       <c r="D65">
-        <v>0.05600115858983053</v>
+        <v>0.006939647420725968</v>
       </c>
       <c r="E65">
-        <v>0.1422130204221618</v>
+        <v>0.008369573547875394</v>
       </c>
       <c r="F65">
-        <v>0.1365102159183575</v>
+        <v>0.05261941100502927</v>
       </c>
       <c r="G65">
-        <v>-0.0522088051491914</v>
+        <v>0.1661691058570145</v>
       </c>
       <c r="H65">
-        <v>0.4940963336044887</v>
+        <v>0.05818496265477628</v>
       </c>
       <c r="I65">
-        <v>-0.4568028408202368</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.2055361486359043</v>
+      </c>
+      <c r="J65">
+        <v>-0.4107816071273509</v>
+      </c>
+      <c r="K65">
+        <v>0.4198139920510586</v>
+      </c>
+      <c r="L65">
+        <v>0.3041698909818327</v>
+      </c>
+      <c r="M65">
+        <v>0.02630476925589639</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1567336191198423</v>
+        <v>0.1251479729235837</v>
       </c>
       <c r="C66">
-        <v>0.1569877716703489</v>
+        <v>0.1331322640705772</v>
       </c>
       <c r="D66">
-        <v>0.05356102168862436</v>
+        <v>0.1017288707410503</v>
       </c>
       <c r="E66">
-        <v>-0.01516543815262767</v>
+        <v>-0.02689935424333377</v>
       </c>
       <c r="F66">
-        <v>-0.04915856832011489</v>
+        <v>0.1663628032600694</v>
       </c>
       <c r="G66">
-        <v>0.09510258945429495</v>
+        <v>-0.09490676659599269</v>
       </c>
       <c r="H66">
-        <v>-0.09483439948579561</v>
+        <v>-0.001126945703045794</v>
       </c>
       <c r="I66">
-        <v>0.3273943742069505</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1171595802587682</v>
+      </c>
+      <c r="J66">
+        <v>0.205404531323846</v>
+      </c>
+      <c r="K66">
+        <v>-0.1327590527837683</v>
+      </c>
+      <c r="L66">
+        <v>-0.06373295011389037</v>
+      </c>
+      <c r="M66">
+        <v>0.03342259118483466</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07469962319499221</v>
+        <v>0.08156602298562397</v>
       </c>
       <c r="C67">
-        <v>0.04846930612328151</v>
+        <v>0.06130639752542243</v>
       </c>
       <c r="D67">
-        <v>0.01092995517652692</v>
+        <v>-0.01467607311960879</v>
       </c>
       <c r="E67">
-        <v>0.004648943285478738</v>
+        <v>0.02232161492363817</v>
       </c>
       <c r="F67">
-        <v>0.006225745634222305</v>
+        <v>-0.03398969298606033</v>
       </c>
       <c r="G67">
-        <v>0.01022016715870781</v>
+        <v>-0.08314638677020378</v>
       </c>
       <c r="H67">
-        <v>-0.05504128037955375</v>
+        <v>0.08632420258616465</v>
       </c>
       <c r="I67">
-        <v>0.02931945024491247</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>-0.04042961548245897</v>
+      </c>
+      <c r="J67">
+        <v>-0.04227992594175631</v>
+      </c>
+      <c r="K67">
+        <v>-0.1172770497178162</v>
+      </c>
+      <c r="L67">
+        <v>-0.04235582094957875</v>
+      </c>
+      <c r="M67">
+        <v>0.01890301995807037</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1079172971917908</v>
+        <v>0.12317688328524</v>
       </c>
       <c r="C68">
-        <v>-0.2692675309747369</v>
+        <v>-0.2739704111012334</v>
       </c>
       <c r="D68">
-        <v>-0.007550829182311217</v>
+        <v>0.005375857974513629</v>
       </c>
       <c r="E68">
-        <v>0.01444275104387661</v>
+        <v>0.0004562768656610559</v>
       </c>
       <c r="F68">
-        <v>-0.01999520810362064</v>
+        <v>0.02394495995621915</v>
       </c>
       <c r="G68">
-        <v>-0.04239930039569897</v>
+        <v>-0.03117949428073112</v>
       </c>
       <c r="H68">
-        <v>0.009807802314712134</v>
+        <v>-0.01613816485934926</v>
       </c>
       <c r="I68">
-        <v>-0.01207814231598733</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.04450039022147149</v>
+      </c>
+      <c r="J68">
+        <v>-0.0357500721397367</v>
+      </c>
+      <c r="K68">
+        <v>0.04760141729864164</v>
+      </c>
+      <c r="L68">
+        <v>-0.004925344787957644</v>
+      </c>
+      <c r="M68">
+        <v>0.03108414992271223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.0397355404399</v>
+        <v>0.04256889153188422</v>
       </c>
       <c r="C69">
-        <v>0.02895669984500849</v>
+        <v>0.02247040292222931</v>
       </c>
       <c r="D69">
-        <v>0.00665230743509476</v>
+        <v>-0.01136326909573675</v>
       </c>
       <c r="E69">
-        <v>0.01453673176036268</v>
+        <v>-0.004448770606673909</v>
       </c>
       <c r="F69">
-        <v>-0.04081422195659453</v>
+        <v>0.012443854012003</v>
       </c>
       <c r="G69">
-        <v>0.02282818041315865</v>
+        <v>-0.03893308331172778</v>
       </c>
       <c r="H69">
-        <v>-0.01645809881810895</v>
+        <v>0.005861082947408944</v>
       </c>
       <c r="I69">
-        <v>-0.03124898327503299</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>-0.005517917754837062</v>
+      </c>
+      <c r="J69">
+        <v>-0.02488179153917432</v>
+      </c>
+      <c r="K69">
+        <v>-0.0218681010225239</v>
+      </c>
+      <c r="L69">
+        <v>0.009256452458219816</v>
+      </c>
+      <c r="M69">
+        <v>-0.0634552311176852</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.04428398702159149</v>
+        <v>0.05173897273846063</v>
       </c>
       <c r="C70">
-        <v>0.005521924491766216</v>
+        <v>0.03635020902300162</v>
       </c>
       <c r="D70">
-        <v>0.02485831856090026</v>
+        <v>0.02224031847437755</v>
       </c>
       <c r="E70">
-        <v>-0.0354306781035976</v>
+        <v>0.01072255901171778</v>
       </c>
       <c r="F70">
-        <v>0.1230763323253772</v>
+        <v>0.0006619225828819666</v>
       </c>
       <c r="G70">
-        <v>0.01932680675880971</v>
+        <v>0.07609370161645145</v>
       </c>
       <c r="H70">
-        <v>-0.0312115249000834</v>
+        <v>-0.001996760436276437</v>
       </c>
       <c r="I70">
-        <v>-0.02340718194792597</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>-0.06058563915831601</v>
+      </c>
+      <c r="J70">
+        <v>-0.1825310319500092</v>
+      </c>
+      <c r="K70">
+        <v>-0.006172427443733072</v>
+      </c>
+      <c r="L70">
+        <v>-0.2487169263424238</v>
+      </c>
+      <c r="M70">
+        <v>-0.2278946973050441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1100454212842215</v>
+        <v>0.1362921019480189</v>
       </c>
       <c r="C71">
-        <v>-0.279481416015322</v>
+        <v>-0.282002058519165</v>
       </c>
       <c r="D71">
-        <v>0.01982911291205651</v>
+        <v>0.008394535675229695</v>
       </c>
       <c r="E71">
-        <v>0.001392316348549529</v>
+        <v>0.01882862942551174</v>
       </c>
       <c r="F71">
-        <v>0.009355456314469827</v>
+        <v>0.02821290361539489</v>
       </c>
       <c r="G71">
-        <v>-0.0405989577942087</v>
+        <v>-0.03229535888426061</v>
       </c>
       <c r="H71">
-        <v>0.004246913147372757</v>
+        <v>-0.0125632151512486</v>
       </c>
       <c r="I71">
-        <v>0.02688856960999841</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.0478174751790869</v>
+      </c>
+      <c r="J71">
+        <v>-0.009281384523325066</v>
+      </c>
+      <c r="K71">
+        <v>0.0064906555657486</v>
+      </c>
+      <c r="L71">
+        <v>0.0003883069071755262</v>
+      </c>
+      <c r="M71">
+        <v>0.0136016755234878</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1841642156766216</v>
+        <v>0.1449979402343765</v>
       </c>
       <c r="C72">
-        <v>0.05523195585842896</v>
+        <v>0.03664046852184994</v>
       </c>
       <c r="D72">
-        <v>-0.2161856656976463</v>
+        <v>-0.002581817486713516</v>
       </c>
       <c r="E72">
-        <v>-0.02826497279591723</v>
+        <v>-0.1811117504685691</v>
       </c>
       <c r="F72">
-        <v>-0.03497619025886972</v>
+        <v>0.04873678811264662</v>
       </c>
       <c r="G72">
-        <v>0.0766565652190786</v>
+        <v>-0.01017119400008076</v>
       </c>
       <c r="H72">
-        <v>0.1254716449161352</v>
+        <v>0.05767603948090687</v>
       </c>
       <c r="I72">
-        <v>-0.06466776286920801</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>-0.02644030359967636</v>
+      </c>
+      <c r="J72">
+        <v>-0.1032836467379472</v>
+      </c>
+      <c r="K72">
+        <v>0.05060899867640566</v>
+      </c>
+      <c r="L72">
+        <v>0.1264973428363617</v>
+      </c>
+      <c r="M72">
+        <v>0.03315959923960168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2636380067963021</v>
+        <v>0.2408247958705564</v>
       </c>
       <c r="C73">
-        <v>0.1873491604843775</v>
+        <v>0.1569886119889094</v>
       </c>
       <c r="D73">
-        <v>0.1439733156386462</v>
+        <v>0.1626039251760834</v>
       </c>
       <c r="E73">
-        <v>-0.04650909512465504</v>
+        <v>0.09647947443228437</v>
       </c>
       <c r="F73">
-        <v>0.1826166080174375</v>
+        <v>-0.4065017561982315</v>
       </c>
       <c r="G73">
-        <v>-0.0545094004668582</v>
+        <v>0.1125669091756495</v>
       </c>
       <c r="H73">
-        <v>0.2036352451614886</v>
+        <v>0.2324033872525617</v>
       </c>
       <c r="I73">
-        <v>0.02222102608891645</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.2923833480957546</v>
+      </c>
+      <c r="J73">
+        <v>0.1992084488053534</v>
+      </c>
+      <c r="K73">
+        <v>-0.2284919205277599</v>
+      </c>
+      <c r="L73">
+        <v>0.2594676346913294</v>
+      </c>
+      <c r="M73">
+        <v>0.1402931118880662</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09269314151268632</v>
+        <v>0.0907523646221137</v>
       </c>
       <c r="C74">
-        <v>0.03119862415981086</v>
+        <v>0.06883567135081389</v>
       </c>
       <c r="D74">
-        <v>0.02576166897637269</v>
+        <v>0.0106347595449924</v>
       </c>
       <c r="E74">
-        <v>-0.0144030194025875</v>
+        <v>-0.004837461039051478</v>
       </c>
       <c r="F74">
-        <v>-0.1438156995794303</v>
+        <v>-0.03271820386192067</v>
       </c>
       <c r="G74">
-        <v>-0.1033028344702479</v>
+        <v>-0.1502037827844381</v>
       </c>
       <c r="H74">
-        <v>0.03901158604304381</v>
+        <v>-0.02598866258221016</v>
       </c>
       <c r="I74">
-        <v>-0.01679810389663193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>-0.001983905223673911</v>
+      </c>
+      <c r="J74">
+        <v>-0.03346107990090734</v>
+      </c>
+      <c r="K74">
+        <v>-0.02257016902005946</v>
+      </c>
+      <c r="L74">
+        <v>0.04545390266345921</v>
+      </c>
+      <c r="M74">
+        <v>0.05591476199191191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09927291349354807</v>
+        <v>0.09106871466294153</v>
       </c>
       <c r="C75">
-        <v>0.01606476695147245</v>
+        <v>0.04925514377557382</v>
       </c>
       <c r="D75">
-        <v>0.02603161156845386</v>
+        <v>0.008523275152120003</v>
       </c>
       <c r="E75">
-        <v>-0.02626095625308624</v>
+        <v>-0.008764910927108904</v>
       </c>
       <c r="F75">
-        <v>-0.1047390758332201</v>
+        <v>-0.02186685455995569</v>
       </c>
       <c r="G75">
-        <v>-0.009650008807342519</v>
+        <v>-0.1038183977834335</v>
       </c>
       <c r="H75">
-        <v>-0.05034358563750999</v>
+        <v>-0.02069046701930625</v>
       </c>
       <c r="I75">
-        <v>-0.1106567716143138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>-0.1023773165998531</v>
+      </c>
+      <c r="J75">
+        <v>-0.02243501855808184</v>
+      </c>
+      <c r="K75">
+        <v>0.01053663230109465</v>
+      </c>
+      <c r="L75">
+        <v>0.02166515698187349</v>
+      </c>
+      <c r="M75">
+        <v>-0.05191244318794862</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1278211730613343</v>
+        <v>0.09630186877325482</v>
       </c>
       <c r="C76">
-        <v>0.03161121135226984</v>
+        <v>0.06791530544761694</v>
       </c>
       <c r="D76">
-        <v>0.02372698336215442</v>
+        <v>0.003806197268755152</v>
       </c>
       <c r="E76">
-        <v>-0.00276552783695297</v>
+        <v>0.0114965619109483</v>
       </c>
       <c r="F76">
-        <v>-0.2333254099781689</v>
+        <v>-0.04959415187774959</v>
       </c>
       <c r="G76">
-        <v>-0.08225178920237138</v>
+        <v>-0.1958307309984127</v>
       </c>
       <c r="H76">
-        <v>-0.01331434571535584</v>
+        <v>-0.05020564261066617</v>
       </c>
       <c r="I76">
-        <v>-0.08817718984227145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>-0.1047745161919479</v>
+      </c>
+      <c r="J76">
+        <v>-0.04753770491040745</v>
+      </c>
+      <c r="K76">
+        <v>0.02111544513018671</v>
+      </c>
+      <c r="L76">
+        <v>0.03528734203837231</v>
+      </c>
+      <c r="M76">
+        <v>0.1368681273926159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.08176748776205264</v>
+        <v>0.07420071892735543</v>
       </c>
       <c r="C77">
-        <v>0.02832795387154192</v>
+        <v>0.01845779333573675</v>
       </c>
       <c r="D77">
-        <v>-0.0296641394918121</v>
+        <v>0.003713267708973161</v>
       </c>
       <c r="E77">
-        <v>0.3137948358473731</v>
+        <v>0.03763455021396748</v>
       </c>
       <c r="F77">
-        <v>-0.1075476118905563</v>
+        <v>0.4576426439587331</v>
       </c>
       <c r="G77">
-        <v>0.797050286270366</v>
+        <v>0.1902527328826178</v>
       </c>
       <c r="H77">
-        <v>0.0438890762617918</v>
+        <v>0.6687313070967305</v>
       </c>
       <c r="I77">
-        <v>0.04943792477855446</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>-0.2758772471983025</v>
+      </c>
+      <c r="J77">
+        <v>-0.04064149688584204</v>
+      </c>
+      <c r="K77">
+        <v>-0.1740741682591082</v>
+      </c>
+      <c r="L77">
+        <v>0.0553043660339425</v>
+      </c>
+      <c r="M77">
+        <v>0.1370953074871275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1326262433957242</v>
+        <v>0.1693647191514002</v>
       </c>
       <c r="C78">
-        <v>0.0938237369791089</v>
+        <v>0.1222201894110401</v>
       </c>
       <c r="D78">
-        <v>0.02185617345534643</v>
+        <v>-0.1741192626399878</v>
       </c>
       <c r="E78">
-        <v>0.14253230718888</v>
+        <v>0.1097392745694548</v>
       </c>
       <c r="F78">
-        <v>0.05587276402869284</v>
+        <v>0.1185680129570077</v>
       </c>
       <c r="G78">
-        <v>-0.03555439583875264</v>
+        <v>0.2955378044277601</v>
       </c>
       <c r="H78">
-        <v>-0.06375760703219337</v>
+        <v>-0.2392550952840344</v>
       </c>
       <c r="I78">
-        <v>0.07998569764392555</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>-0.4016989589201121</v>
+      </c>
+      <c r="J78">
+        <v>0.5133629842903612</v>
+      </c>
+      <c r="K78">
+        <v>0.3748060619931698</v>
+      </c>
+      <c r="L78">
+        <v>0.176580193376505</v>
+      </c>
+      <c r="M78">
+        <v>0.07472002022312327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1427523972687967</v>
+        <v>0.1343093091842167</v>
       </c>
       <c r="C79">
-        <v>0.05177826682310968</v>
+        <v>0.07343512299232653</v>
       </c>
       <c r="D79">
-        <v>0.03668113555334242</v>
+        <v>0.002580346435691674</v>
       </c>
       <c r="E79">
-        <v>-0.04030867659883084</v>
+        <v>0.00342406242971062</v>
       </c>
       <c r="F79">
-        <v>-0.1632812879454327</v>
+        <v>0.001155829385855065</v>
       </c>
       <c r="G79">
-        <v>-0.02631615624093753</v>
+        <v>-0.1561634122948082</v>
       </c>
       <c r="H79">
-        <v>-0.05692385588118225</v>
+        <v>-0.03259147951662796</v>
       </c>
       <c r="I79">
-        <v>-0.08594855333089312</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>-0.09405740972579317</v>
+      </c>
+      <c r="J79">
+        <v>-0.08968674777730996</v>
+      </c>
+      <c r="K79">
+        <v>-0.008176875979460397</v>
+      </c>
+      <c r="L79">
+        <v>0.04556304127475366</v>
+      </c>
+      <c r="M79">
+        <v>0.01826541282374379</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.02704084642101002</v>
+        <v>0.05524165808785457</v>
       </c>
       <c r="C80">
-        <v>-0.0008331406233977683</v>
+        <v>0.02311288189449366</v>
       </c>
       <c r="D80">
-        <v>0.005271201076032551</v>
+        <v>0.06275870213275286</v>
       </c>
       <c r="E80">
-        <v>-0.02947040380285339</v>
+        <v>0.003993156494349534</v>
       </c>
       <c r="F80">
-        <v>0.008851971279319311</v>
+        <v>0.009130226397906491</v>
       </c>
       <c r="G80">
-        <v>-0.0003469506015318095</v>
+        <v>0.02097786786719496</v>
       </c>
       <c r="H80">
-        <v>0.08917741252402038</v>
+        <v>-0.08536804680344212</v>
       </c>
       <c r="I80">
-        <v>0.005134039805256668</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1251522894576997</v>
+      </c>
+      <c r="J80">
+        <v>0.005341526025834768</v>
+      </c>
+      <c r="K80">
+        <v>0.06177575607585318</v>
+      </c>
+      <c r="L80">
+        <v>-0.07983934571992073</v>
+      </c>
+      <c r="M80">
+        <v>0.0034209793463247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1134973151750148</v>
+        <v>0.1195954308072657</v>
       </c>
       <c r="C81">
-        <v>0.04804801892961153</v>
+        <v>0.050226132569485</v>
       </c>
       <c r="D81">
-        <v>0.04152795855315589</v>
+        <v>0.002026138280722142</v>
       </c>
       <c r="E81">
-        <v>-0.03275030053268173</v>
+        <v>0.009526619388800355</v>
       </c>
       <c r="F81">
-        <v>-0.09965169985682978</v>
+        <v>0.006012079612564628</v>
       </c>
       <c r="G81">
-        <v>-0.02419738461740137</v>
+        <v>-0.14057069178859</v>
       </c>
       <c r="H81">
-        <v>-0.01776537598035478</v>
+        <v>-0.06059657372718897</v>
       </c>
       <c r="I81">
-        <v>-0.04073462795649337</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>-0.07810952056942606</v>
+      </c>
+      <c r="J81">
+        <v>-0.01847561884480504</v>
+      </c>
+      <c r="K81">
+        <v>-0.04539899505213588</v>
+      </c>
+      <c r="L81">
+        <v>0.01612813233421666</v>
+      </c>
+      <c r="M81">
+        <v>-0.05282849720858482</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1091648186563369</v>
+        <v>0.1183577404929997</v>
       </c>
       <c r="C82">
-        <v>0.02838183223741569</v>
+        <v>0.05149893340477429</v>
       </c>
       <c r="D82">
-        <v>0.06439703602243274</v>
+        <v>0.0226442585691594</v>
       </c>
       <c r="E82">
-        <v>-0.08119997501320206</v>
+        <v>-0.001547221309230391</v>
       </c>
       <c r="F82">
-        <v>-0.2608560649275745</v>
+        <v>-0.03470001725437387</v>
       </c>
       <c r="G82">
-        <v>-0.05982444938795521</v>
+        <v>-0.2256201507957516</v>
       </c>
       <c r="H82">
-        <v>-0.06508527306299296</v>
+        <v>-0.06431779199747997</v>
       </c>
       <c r="I82">
-        <v>-0.06210551110797261</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>-0.1046363573121497</v>
+      </c>
+      <c r="J82">
+        <v>-0.06210572727310826</v>
+      </c>
+      <c r="K82">
+        <v>-0.04552091856711567</v>
+      </c>
+      <c r="L82">
+        <v>-0.03655145739449215</v>
+      </c>
+      <c r="M82">
+        <v>0.02166180441800277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05568342553099254</v>
+        <v>0.07552127467879804</v>
       </c>
       <c r="C83">
-        <v>0.03367816075748136</v>
+        <v>0.06403484215043873</v>
       </c>
       <c r="D83">
-        <v>0.04140341658696575</v>
+        <v>0.01266184943156004</v>
       </c>
       <c r="E83">
-        <v>-0.02739376291571847</v>
+        <v>0.006890176556834739</v>
       </c>
       <c r="F83">
-        <v>0.08491854353641454</v>
+        <v>-0.002331725571597476</v>
       </c>
       <c r="G83">
-        <v>0.03799501848329909</v>
+        <v>-0.02446681320897792</v>
       </c>
       <c r="H83">
-        <v>-0.06778336116808779</v>
+        <v>0.04494217833816074</v>
       </c>
       <c r="I83">
-        <v>0.03928119124634515</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.05089765796995489</v>
+      </c>
+      <c r="J83">
+        <v>0.002935390611991304</v>
+      </c>
+      <c r="K83">
+        <v>0.01132818553346024</v>
+      </c>
+      <c r="L83">
+        <v>-0.135664586470832</v>
+      </c>
+      <c r="M83">
+        <v>-0.05219115253152269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.04782176999327758</v>
+        <v>0.0474122482986685</v>
       </c>
       <c r="C84">
-        <v>0.03295592927928422</v>
+        <v>-0.02091762385540429</v>
       </c>
       <c r="D84">
-        <v>-0.03266780532526202</v>
+        <v>0.00751045052311713</v>
       </c>
       <c r="E84">
-        <v>-0.007500885594337419</v>
+        <v>-0.01745656855872271</v>
       </c>
       <c r="F84">
-        <v>0.01047402240890884</v>
+        <v>-0.004476343053152013</v>
       </c>
       <c r="G84">
-        <v>-0.1405525229044462</v>
+        <v>0.2098678759782658</v>
       </c>
       <c r="H84">
-        <v>-0.01728206822910591</v>
+        <v>-0.1933107804242017</v>
       </c>
       <c r="I84">
-        <v>0.03802019885532425</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.08974473252182802</v>
+      </c>
+      <c r="J84">
+        <v>0.02825988045913214</v>
+      </c>
+      <c r="K84">
+        <v>-0.1229740714490194</v>
+      </c>
+      <c r="L84">
+        <v>-0.1719424088927316</v>
+      </c>
+      <c r="M84">
+        <v>0.6134095422053703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.08107794168829435</v>
+        <v>0.1085422731751021</v>
       </c>
       <c r="C85">
-        <v>0.04154531005596718</v>
+        <v>0.05151915791258287</v>
       </c>
       <c r="D85">
-        <v>0.05982848710577958</v>
+        <v>0.01455486585959599</v>
       </c>
       <c r="E85">
-        <v>-0.006527482485281202</v>
+        <v>0.03322335886831001</v>
       </c>
       <c r="F85">
-        <v>-0.1901246944094877</v>
+        <v>0.003670852315768478</v>
       </c>
       <c r="G85">
-        <v>-0.03119029787817077</v>
+        <v>-0.1656933929765779</v>
       </c>
       <c r="H85">
-        <v>0.001054276349981127</v>
+        <v>-0.04172995722215254</v>
       </c>
       <c r="I85">
-        <v>-0.05345094992871146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>-0.08640867203791382</v>
+      </c>
+      <c r="J85">
+        <v>-0.07694878874897462</v>
+      </c>
+      <c r="K85">
+        <v>-0.01542609947942439</v>
+      </c>
+      <c r="L85">
+        <v>0.05831794664962992</v>
+      </c>
+      <c r="M85">
+        <v>0.008644190183056467</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03469604588444072</v>
+        <v>0.06946140806744575</v>
       </c>
       <c r="C86">
-        <v>0.04212804776020219</v>
+        <v>0.01943014337952231</v>
       </c>
       <c r="D86">
-        <v>0.002781180061740148</v>
+        <v>-0.009202523005685531</v>
       </c>
       <c r="E86">
-        <v>0.03955032547345146</v>
+        <v>0.08829894969319238</v>
       </c>
       <c r="F86">
-        <v>0.05021807866860125</v>
+        <v>0.0426570365249141</v>
       </c>
       <c r="G86">
-        <v>0.05001218801545505</v>
+        <v>0.4158911542283878</v>
       </c>
       <c r="H86">
-        <v>0.1140025599784182</v>
+        <v>-0.4382581402011375</v>
       </c>
       <c r="I86">
-        <v>-0.04589683319279618</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>-0.1796897735002333</v>
+      </c>
+      <c r="J86">
+        <v>-0.2853172227647675</v>
+      </c>
+      <c r="K86">
+        <v>-0.4876985884697628</v>
+      </c>
+      <c r="L86">
+        <v>0.1775792898662943</v>
+      </c>
+      <c r="M86">
+        <v>-0.03000827900040944</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.08980920057742411</v>
+        <v>0.1098367628308604</v>
       </c>
       <c r="C87">
-        <v>0.06534059045419158</v>
+        <v>0.0659147628981523</v>
       </c>
       <c r="D87">
-        <v>0.01334982166630979</v>
+        <v>-0.03938628128234445</v>
       </c>
       <c r="E87">
-        <v>0.1371724063732108</v>
+        <v>0.03518213710339776</v>
       </c>
       <c r="F87">
-        <v>-0.01192224735690106</v>
+        <v>0.1524197680297599</v>
       </c>
       <c r="G87">
-        <v>0.1646029892285488</v>
+        <v>0.09735518820986597</v>
       </c>
       <c r="H87">
-        <v>-0.004773529156565341</v>
+        <v>0.1446074601971567</v>
       </c>
       <c r="I87">
-        <v>0.09039091776415523</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.009189500421740658</v>
+      </c>
+      <c r="J87">
+        <v>-0.04828360888746047</v>
+      </c>
+      <c r="K87">
+        <v>-0.05729033827424729</v>
+      </c>
+      <c r="L87">
+        <v>-0.1040909328906652</v>
+      </c>
+      <c r="M87">
+        <v>0.05958303436865587</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04735575433026215</v>
+        <v>0.05602102420917843</v>
       </c>
       <c r="C88">
-        <v>0.04200827894607771</v>
+        <v>0.05307967181338558</v>
       </c>
       <c r="D88">
-        <v>0.01996281233242706</v>
+        <v>0.02690637634670007</v>
       </c>
       <c r="E88">
-        <v>0.004400981718603551</v>
+        <v>0.01285495188721085</v>
       </c>
       <c r="F88">
-        <v>0.01001305019854235</v>
+        <v>0.0322911928297279</v>
       </c>
       <c r="G88">
-        <v>0.01060822161603679</v>
+        <v>-0.03097877552973459</v>
       </c>
       <c r="H88">
-        <v>-0.003770733758285408</v>
+        <v>-0.02083378735055697</v>
       </c>
       <c r="I88">
-        <v>0.04279440776950813</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.0444257770478118</v>
+      </c>
+      <c r="J88">
+        <v>0.01152969641348272</v>
+      </c>
+      <c r="K88">
+        <v>-0.01877974491180504</v>
+      </c>
+      <c r="L88">
+        <v>-0.01881445459835902</v>
+      </c>
+      <c r="M88">
+        <v>-0.0311569474912914</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1790562802785345</v>
+        <v>0.2172601569894145</v>
       </c>
       <c r="C89">
-        <v>-0.3174774989629693</v>
+        <v>-0.3566834530969882</v>
       </c>
       <c r="D89">
-        <v>0.05893809651775196</v>
+        <v>-0.04317138419601958</v>
       </c>
       <c r="E89">
-        <v>0.08542342821827015</v>
+        <v>0.07965048465022269</v>
       </c>
       <c r="F89">
-        <v>0.04113934056597877</v>
+        <v>0.01334536906216168</v>
       </c>
       <c r="G89">
-        <v>-0.01002254921261916</v>
+        <v>-0.005418223679406129</v>
       </c>
       <c r="H89">
-        <v>-0.009121156546635504</v>
+        <v>-0.02810126738141496</v>
       </c>
       <c r="I89">
-        <v>0.002085214592602864</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.02431361809898369</v>
+      </c>
+      <c r="J89">
+        <v>0.07249229434493169</v>
+      </c>
+      <c r="K89">
+        <v>-0.02130506720662439</v>
+      </c>
+      <c r="L89">
+        <v>-0.02995803416815863</v>
+      </c>
+      <c r="M89">
+        <v>-0.1054477637234698</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1328724158607893</v>
+        <v>0.1495862443697851</v>
       </c>
       <c r="C90">
-        <v>-0.2741815606716363</v>
+        <v>-0.2699456630227312</v>
       </c>
       <c r="D90">
-        <v>-0.004268807701789488</v>
+        <v>0.006177590561044953</v>
       </c>
       <c r="E90">
-        <v>0.05412979901662669</v>
+        <v>0.0170393021463961</v>
       </c>
       <c r="F90">
-        <v>0.03502794759665596</v>
+        <v>0.03279003322436377</v>
       </c>
       <c r="G90">
-        <v>0.03351964435953544</v>
+        <v>0.003205044085993218</v>
       </c>
       <c r="H90">
-        <v>0.0218902289409979</v>
+        <v>0.02054928309528413</v>
       </c>
       <c r="I90">
-        <v>0.118761881430612</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.06466452338349876</v>
+      </c>
+      <c r="J90">
+        <v>0.02507243267750046</v>
+      </c>
+      <c r="K90">
+        <v>-0.008694187211838466</v>
+      </c>
+      <c r="L90">
+        <v>0.001875823037362057</v>
+      </c>
+      <c r="M90">
+        <v>0.03248608677561976</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.07992181844377311</v>
+        <v>0.0774295057744723</v>
       </c>
       <c r="C91">
-        <v>0.02552417919750463</v>
+        <v>0.04999069214627156</v>
       </c>
       <c r="D91">
-        <v>0.01304488875587327</v>
+        <v>-0.009115945295001617</v>
       </c>
       <c r="E91">
-        <v>0.01264509571931997</v>
+        <v>0.009181217567732826</v>
       </c>
       <c r="F91">
-        <v>-0.09546063083166131</v>
+        <v>-0.01631736768003654</v>
       </c>
       <c r="G91">
-        <v>-0.04147252720293729</v>
+        <v>-0.07944496786469231</v>
       </c>
       <c r="H91">
-        <v>-0.01971420569015262</v>
+        <v>-0.02373673383120518</v>
       </c>
       <c r="I91">
-        <v>-0.0508662079537895</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>-0.0665796146442014</v>
+      </c>
+      <c r="J91">
+        <v>-0.001734902497443065</v>
+      </c>
+      <c r="K91">
+        <v>-0.00833468818695385</v>
+      </c>
+      <c r="L91">
+        <v>0.03119473219867699</v>
+      </c>
+      <c r="M91">
+        <v>0.01656898889757728</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1514538153330641</v>
+        <v>0.1649914283031759</v>
       </c>
       <c r="C92">
-        <v>-0.29949439240666</v>
+        <v>-0.3024305833534127</v>
       </c>
       <c r="D92">
-        <v>0.03809276209065356</v>
+        <v>-0.03245160220172229</v>
       </c>
       <c r="E92">
-        <v>0.033608494692307</v>
+        <v>0.04685390017311885</v>
       </c>
       <c r="F92">
-        <v>0.03070806951468841</v>
+        <v>0.01415061143906923</v>
       </c>
       <c r="G92">
-        <v>-0.07761043535461633</v>
+        <v>-0.0362444408852868</v>
       </c>
       <c r="H92">
-        <v>-0.01345536089693249</v>
+        <v>-0.01922897547432982</v>
       </c>
       <c r="I92">
-        <v>-0.004470738516454584</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.01864220447514928</v>
+      </c>
+      <c r="J92">
+        <v>0.03409097843813904</v>
+      </c>
+      <c r="K92">
+        <v>0.0138478427146817</v>
+      </c>
+      <c r="L92">
+        <v>-0.0007255435632983877</v>
+      </c>
+      <c r="M92">
+        <v>-0.04860808750414539</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1458355337800773</v>
+        <v>0.1645684007083727</v>
       </c>
       <c r="C93">
-        <v>-0.2439007157700185</v>
+        <v>-0.2869118397133564</v>
       </c>
       <c r="D93">
-        <v>0.01102792464977738</v>
+        <v>0.02735334703696242</v>
       </c>
       <c r="E93">
-        <v>0.02383422875857104</v>
+        <v>0.007107945899298649</v>
       </c>
       <c r="F93">
-        <v>0.04643719803418914</v>
+        <v>0.008876358130425095</v>
       </c>
       <c r="G93">
-        <v>0.009675330408872198</v>
+        <v>0.01212362420404204</v>
       </c>
       <c r="H93">
-        <v>0.001143416753897522</v>
+        <v>-0.01887316914820145</v>
       </c>
       <c r="I93">
-        <v>0.03022022902164915</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.02315822856812114</v>
+      </c>
+      <c r="J93">
+        <v>-0.02465852896819497</v>
+      </c>
+      <c r="K93">
+        <v>-0.02383626949516432</v>
+      </c>
+      <c r="L93">
+        <v>-0.02135909701256416</v>
+      </c>
+      <c r="M93">
+        <v>0.01973046328851568</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08715649039572411</v>
+        <v>0.1060793139051925</v>
       </c>
       <c r="C94">
-        <v>0.05714058159994971</v>
+        <v>0.07519883751560488</v>
       </c>
       <c r="D94">
-        <v>0.01854239353475369</v>
+        <v>-0.01282454552512279</v>
       </c>
       <c r="E94">
-        <v>0.005569804565350443</v>
+        <v>0.01634117588726652</v>
       </c>
       <c r="F94">
-        <v>-0.1344806724547844</v>
+        <v>-0.03469432926697995</v>
       </c>
       <c r="G94">
-        <v>-0.0612040751325865</v>
+        <v>-0.122908750858682</v>
       </c>
       <c r="H94">
-        <v>-0.04307635343094952</v>
+        <v>-0.04074622971681074</v>
       </c>
       <c r="I94">
-        <v>-0.1275851625798624</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>-0.05886324740049263</v>
+      </c>
+      <c r="J94">
+        <v>-0.006543811556605362</v>
+      </c>
+      <c r="K94">
+        <v>0.016784761670134</v>
+      </c>
+      <c r="L94">
+        <v>0.03953212531330296</v>
+      </c>
+      <c r="M94">
+        <v>-0.02441760513407836</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1019459036905711</v>
+        <v>0.131123320578221</v>
       </c>
       <c r="C95">
-        <v>0.08339668467273069</v>
+        <v>0.07008362393376247</v>
       </c>
       <c r="D95">
-        <v>0.09266455387672022</v>
+        <v>-0.01423143801662128</v>
       </c>
       <c r="E95">
-        <v>0.01572771817917694</v>
+        <v>0.06675003665225404</v>
       </c>
       <c r="F95">
-        <v>0.0498767399268484</v>
+        <v>0.0659615027175912</v>
       </c>
       <c r="G95">
-        <v>-0.01641721275251477</v>
+        <v>0.1838585202791574</v>
       </c>
       <c r="H95">
-        <v>0.04768954224900369</v>
+        <v>-0.08144398679776536</v>
       </c>
       <c r="I95">
-        <v>0.03716775417099879</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1729756983799072</v>
+      </c>
+      <c r="J95">
+        <v>-0.1055969192352308</v>
+      </c>
+      <c r="K95">
+        <v>-0.1039738075754168</v>
+      </c>
+      <c r="L95">
+        <v>0.01816121273532687</v>
+      </c>
+      <c r="M95">
+        <v>-0.2866180220944256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2903384177742275</v>
+        <v>0.167256486581909</v>
       </c>
       <c r="C97">
-        <v>0.06968279485713508</v>
+        <v>0.007040345952018831</v>
       </c>
       <c r="D97">
-        <v>-0.8692695336492543</v>
+        <v>-0.1045609552024467</v>
       </c>
       <c r="E97">
-        <v>-0.1903373036487047</v>
+        <v>-0.9360339604244354</v>
       </c>
       <c r="F97">
-        <v>0.07547233563942983</v>
+        <v>0.01467872533848333</v>
       </c>
       <c r="G97">
-        <v>0.00222154141548538</v>
+        <v>0.1074470301089628</v>
       </c>
       <c r="H97">
-        <v>0.06655947589818619</v>
+        <v>-0.03350414861031388</v>
       </c>
       <c r="I97">
-        <v>0.03094570958951919</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.01571609267621572</v>
+      </c>
+      <c r="J97">
+        <v>0.05302859359707794</v>
+      </c>
+      <c r="K97">
+        <v>-0.03796452885864681</v>
+      </c>
+      <c r="L97">
+        <v>0.008422337230696348</v>
+      </c>
+      <c r="M97">
+        <v>-0.03589724410695373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2660690749594419</v>
+        <v>0.2639722114120602</v>
       </c>
       <c r="C98">
-        <v>0.1008702430903125</v>
+        <v>0.1200296823757945</v>
       </c>
       <c r="D98">
-        <v>0.1732077403067263</v>
+        <v>0.01640096104518486</v>
       </c>
       <c r="E98">
-        <v>-0.2989134421639109</v>
+        <v>0.02992435221193971</v>
       </c>
       <c r="F98">
-        <v>0.5125148294756084</v>
+        <v>-0.4216502688966264</v>
       </c>
       <c r="G98">
-        <v>-0.03001003165351778</v>
+        <v>0.2550825723035188</v>
       </c>
       <c r="H98">
-        <v>-0.3351459068806142</v>
+        <v>0.1608251724629096</v>
       </c>
       <c r="I98">
-        <v>0.04724734766425707</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>-0.2084825900851908</v>
+      </c>
+      <c r="J98">
+        <v>-0.04749447962074666</v>
+      </c>
+      <c r="K98">
+        <v>0.1977508589269427</v>
+      </c>
+      <c r="L98">
+        <v>-0.5859910034033887</v>
+      </c>
+      <c r="M98">
+        <v>-0.0288569846854763</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.04746929627789173</v>
+        <v>0.06704269165046157</v>
       </c>
       <c r="C99">
-        <v>0.01958305958640162</v>
+        <v>0.04493992901914602</v>
       </c>
       <c r="D99">
-        <v>-0.01083502051093424</v>
+        <v>-0.01958179593858464</v>
       </c>
       <c r="E99">
-        <v>-0.04282083718326411</v>
+        <v>0.01394383516465479</v>
       </c>
       <c r="F99">
-        <v>0.06455012288285659</v>
+        <v>-0.01284891222002034</v>
       </c>
       <c r="G99">
-        <v>0.2562175603654349</v>
+        <v>-0.01859912173719634</v>
       </c>
       <c r="H99">
-        <v>-0.5221788531379705</v>
+        <v>0.06536334932890756</v>
       </c>
       <c r="I99">
-        <v>-0.6052511658941011</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>-0.2444497379475302</v>
+      </c>
+      <c r="J99">
+        <v>0.00951681327104595</v>
+      </c>
+      <c r="K99">
+        <v>-0.1364863379192473</v>
+      </c>
+      <c r="L99">
+        <v>-0.005595052676484614</v>
+      </c>
+      <c r="M99">
+        <v>-0.4575953484717926</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04940292829459192</v>
+        <v>0.0449310903033416</v>
       </c>
       <c r="C101">
-        <v>0.01782937240881646</v>
+        <v>0.02290509004182349</v>
       </c>
       <c r="D101">
-        <v>0.01542448237046995</v>
+        <v>-0.001622088039624126</v>
       </c>
       <c r="E101">
-        <v>0.02617294380456398</v>
+        <v>0.02215318995947523</v>
       </c>
       <c r="F101">
-        <v>-0.003752619446247489</v>
+        <v>0.04693122595636529</v>
       </c>
       <c r="G101">
-        <v>-0.01396686602210809</v>
+        <v>-0.03644671481858038</v>
       </c>
       <c r="H101">
-        <v>0.0351735784731571</v>
+        <v>-0.05282283960422732</v>
       </c>
       <c r="I101">
-        <v>0.01018611699558128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.0200841401014923</v>
+      </c>
+      <c r="J101">
+        <v>-0.04255458513327446</v>
+      </c>
+      <c r="K101">
+        <v>0.009726903494215917</v>
+      </c>
+      <c r="L101">
+        <v>-0.03724986291322708</v>
+      </c>
+      <c r="M101">
+        <v>0.02845696817212368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
